--- a/ConjuntoKPIs.xlsx
+++ b/ConjuntoKPIs.xlsx
@@ -589,7 +589,7 @@
         <v>2020</v>
       </c>
       <c r="D2">
-        <v>0.737072524444163</v>
+        <v>0.654655336909864</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -609,7 +609,7 @@
         <v>2020</v>
       </c>
       <c r="D3">
-        <v>0.4626</v>
+        <v>0.4144</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -629,7 +629,7 @@
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>0.8016</v>
+        <v>0.7984</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>2020</v>
       </c>
       <c r="D5">
-        <v>0.5609</v>
+        <v>0.5034</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -669,7 +669,7 @@
         <v>2020</v>
       </c>
       <c r="D6">
-        <v>0.0505</v>
+        <v>0.0503</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -689,7 +689,7 @@
         <v>2020</v>
       </c>
       <c r="D7">
-        <v>-1.7641</v>
+        <v>-1.8065</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -709,7 +709,7 @@
         <v>2020</v>
       </c>
       <c r="D8">
-        <v>17.3251</v>
+        <v>17.7588</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -729,7 +729,7 @@
         <v>2020</v>
       </c>
       <c r="D9">
-        <v>14.3251</v>
+        <v>14.7588</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -749,7 +749,7 @@
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>-1.7787</v>
+        <v>-1.8214</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -769,7 +769,7 @@
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>14.5393</v>
+        <v>14.979</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -789,7 +789,7 @@
         <v>2020</v>
       </c>
       <c r="D12">
-        <v>0.0392</v>
+        <v>0.0391</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -809,7 +809,7 @@
         <v>2020</v>
       </c>
       <c r="D13">
-        <v>0.0293</v>
+        <v>0.0292</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -829,7 +829,7 @@
         <v>2020</v>
       </c>
       <c r="D14">
-        <v>0.0446</v>
+        <v>0.0447</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -849,7 +849,7 @@
         <v>2020</v>
       </c>
       <c r="D15">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>2020</v>
       </c>
       <c r="D16">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
@@ -889,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="D17">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -909,7 +909,7 @@
         <v>2020</v>
       </c>
       <c r="D18">
-        <v>0.6945</v>
+        <v>0.6956</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -929,7 +929,7 @@
         <v>2020</v>
       </c>
       <c r="D19">
-        <v>-0.0765</v>
+        <v>-0.07729999999999999</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -949,7 +949,7 @@
         <v>2020</v>
       </c>
       <c r="D20">
-        <v>-0.1229</v>
+        <v>-0.1228</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
@@ -969,7 +969,7 @@
         <v>2020</v>
       </c>
       <c r="D21">
-        <v>-0.0878</v>
+        <v>-0.0876</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -989,7 +989,7 @@
         <v>2020</v>
       </c>
       <c r="D22">
-        <v>-0.2589</v>
+        <v>-0.261</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -1009,7 +1009,7 @@
         <v>2020</v>
       </c>
       <c r="D23">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -1029,7 +1029,7 @@
         <v>2020</v>
       </c>
       <c r="D24">
-        <v>0.6027</v>
+        <v>0.6022</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
@@ -1049,7 +1049,7 @@
         <v>2020</v>
       </c>
       <c r="D25">
-        <v>0.0159</v>
+        <v>0.0158</v>
       </c>
       <c r="E25" t="s">
         <v>44</v>
@@ -1069,7 +1069,7 @@
         <v>2020</v>
       </c>
       <c r="D26">
-        <v>1.1818</v>
+        <v>1.1738</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -1089,7 +1089,7 @@
         <v>2020</v>
       </c>
       <c r="D27">
-        <v>0.0762</v>
+        <v>0.0725</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
@@ -1109,7 +1109,7 @@
         <v>2020</v>
       </c>
       <c r="D28">
-        <v>0.0188</v>
+        <v>0.0186</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
@@ -1129,7 +1129,7 @@
         <v>2020</v>
       </c>
       <c r="D29">
-        <v>0.5816</v>
+        <v>0.5752</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
@@ -1149,7 +1149,7 @@
         <v>2020</v>
       </c>
       <c r="D30">
-        <v>0.1818</v>
+        <v>0.1738</v>
       </c>
       <c r="E30" t="s">
         <v>49</v>
@@ -1169,7 +1169,7 @@
         <v>2020</v>
       </c>
       <c r="D31">
-        <v>1.79415590321914</v>
+        <v>1.58792654367448</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>2020</v>
       </c>
       <c r="D32">
-        <v>1.0289</v>
+        <v>0.9245</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -1209,7 +1209,7 @@
         <v>2020</v>
       </c>
       <c r="D33">
-        <v>0.6377</v>
+        <v>0.6229</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -1229,7 +1229,7 @@
         <v>2020</v>
       </c>
       <c r="D34">
-        <v>1.5853</v>
+        <v>1.457</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
@@ -1249,7 +1249,7 @@
         <v>2020</v>
       </c>
       <c r="D35">
-        <v>0.0402</v>
+        <v>0.0392</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         <v>2020</v>
       </c>
       <c r="D36">
-        <v>-4.1841</v>
+        <v>-4.0791</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -1289,7 +1289,7 @@
         <v>2020</v>
       </c>
       <c r="D37">
-        <v>55.0138</v>
+        <v>52.7903</v>
       </c>
       <c r="E37" t="s">
         <v>27</v>
@@ -1309,7 +1309,7 @@
         <v>2020</v>
       </c>
       <c r="D38">
-        <v>52.0138</v>
+        <v>49.7903</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
@@ -1329,7 +1329,7 @@
         <v>2020</v>
       </c>
       <c r="D39">
-        <v>-4.2186</v>
+        <v>-4.1128</v>
       </c>
       <c r="E39" t="s">
         <v>29</v>
@@ -1349,7 +1349,7 @@
         <v>2020</v>
       </c>
       <c r="D40">
-        <v>52.748</v>
+        <v>50.4938</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -1369,7 +1369,7 @@
         <v>2020</v>
       </c>
       <c r="D41">
-        <v>0.0322</v>
+        <v>0.0316</v>
       </c>
       <c r="E41" t="s">
         <v>31</v>
@@ -1389,7 +1389,7 @@
         <v>2020</v>
       </c>
       <c r="D42">
-        <v>0.0247</v>
+        <v>0.0236</v>
       </c>
       <c r="E42" t="s">
         <v>32</v>
@@ -1409,7 +1409,7 @@
         <v>2020</v>
       </c>
       <c r="D43">
-        <v>0.0418</v>
+        <v>0.0404</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -1429,7 +1429,7 @@
         <v>2020</v>
       </c>
       <c r="D44">
-        <v>0.031</v>
+        <v>0.0304</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
@@ -1449,7 +1449,7 @@
         <v>2020</v>
       </c>
       <c r="D45">
-        <v>0.031</v>
+        <v>0.0304</v>
       </c>
       <c r="E45" t="s">
         <v>35</v>
@@ -1469,7 +1469,7 @@
         <v>2020</v>
       </c>
       <c r="D46">
-        <v>0.031</v>
+        <v>0.0304</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -1489,7 +1489,7 @@
         <v>2020</v>
       </c>
       <c r="D47">
-        <v>0.6051</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E47" t="s">
         <v>37</v>
@@ -1509,7 +1509,7 @@
         <v>2020</v>
       </c>
       <c r="D48">
-        <v>-0.0466</v>
+        <v>-0.047</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
@@ -1529,7 +1529,7 @@
         <v>2020</v>
       </c>
       <c r="D49">
-        <v>-0.08740000000000001</v>
+        <v>-0.0866</v>
       </c>
       <c r="E49" t="s">
         <v>39</v>
@@ -1549,7 +1549,7 @@
         <v>2020</v>
       </c>
       <c r="D50">
-        <v>-0.0546</v>
+        <v>-0.0548</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
@@ -1569,7 +1569,7 @@
         <v>2020</v>
       </c>
       <c r="D51">
-        <v>-0.0546</v>
+        <v>-0.0548</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
@@ -1589,7 +1589,7 @@
         <v>2020</v>
       </c>
       <c r="D52">
-        <v>0.031</v>
+        <v>0.0304</v>
       </c>
       <c r="E52" t="s">
         <v>42</v>
@@ -1609,7 +1609,7 @@
         <v>2020</v>
       </c>
       <c r="D53">
-        <v>0.4914</v>
+        <v>0.4819</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
@@ -1629,7 +1629,7 @@
         <v>2020</v>
       </c>
       <c r="D54">
-        <v>0.0097</v>
+        <v>0.0098</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
@@ -1649,7 +1649,7 @@
         <v>2020</v>
       </c>
       <c r="D55">
-        <v>1.386</v>
+        <v>1.3559</v>
       </c>
       <c r="E55" t="s">
         <v>45</v>
@@ -1669,7 +1669,7 @@
         <v>2020</v>
       </c>
       <c r="D56">
-        <v>0.1214</v>
+        <v>0.1151</v>
       </c>
       <c r="E56" t="s">
         <v>46</v>
@@ -1689,7 +1689,7 @@
         <v>2020</v>
       </c>
       <c r="D57">
-        <v>0.0135</v>
+        <v>0.0133</v>
       </c>
       <c r="E57" t="s">
         <v>47</v>
@@ -1709,7 +1709,7 @@
         <v>2020</v>
       </c>
       <c r="D58">
-        <v>0.4921</v>
+        <v>0.5031</v>
       </c>
       <c r="E58" t="s">
         <v>48</v>
@@ -1729,7 +1729,7 @@
         <v>2020</v>
       </c>
       <c r="D59">
-        <v>0.386</v>
+        <v>0.3559</v>
       </c>
       <c r="E59" t="s">
         <v>49</v>
@@ -1749,7 +1749,7 @@
         <v>2020</v>
       </c>
       <c r="D60">
-        <v>-0.444916487689346</v>
+        <v>-0.287508579610022</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1769,7 +1769,7 @@
         <v>2020</v>
       </c>
       <c r="D61">
-        <v>-0.3332</v>
+        <v>-0.2082</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -1789,7 +1789,7 @@
         <v>2020</v>
       </c>
       <c r="D62">
-        <v>0.8488</v>
+        <v>0.8168</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
@@ -1809,7 +1809,7 @@
         <v>2020</v>
       </c>
       <c r="D63">
-        <v>-0.3995</v>
+        <v>-0.2635</v>
       </c>
       <c r="E63" t="s">
         <v>24</v>
@@ -1829,7 +1829,7 @@
         <v>2020</v>
       </c>
       <c r="D64">
-        <v>0.0535</v>
+        <v>0.0515</v>
       </c>
       <c r="E64" t="s">
         <v>25</v>
@@ -1849,7 +1849,7 @@
         <v>2020</v>
       </c>
       <c r="D65">
-        <v>-2.3631</v>
+        <v>-2.4245</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -1869,7 +1869,7 @@
         <v>2020</v>
       </c>
       <c r="D66">
-        <v>25.8968</v>
+        <v>25.9202</v>
       </c>
       <c r="E66" t="s">
         <v>27</v>
@@ -1889,7 +1889,7 @@
         <v>2020</v>
       </c>
       <c r="D67">
-        <v>22.8968</v>
+        <v>22.9202</v>
       </c>
       <c r="E67" t="s">
         <v>28</v>
@@ -1909,7 +1909,7 @@
         <v>2020</v>
       </c>
       <c r="D68">
-        <v>-2.3826</v>
+        <v>-2.4445</v>
       </c>
       <c r="E68" t="s">
         <v>29</v>
@@ -1929,7 +1929,7 @@
         <v>2020</v>
       </c>
       <c r="D69">
-        <v>23.2293</v>
+        <v>23.253</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -1949,7 +1949,7 @@
         <v>2020</v>
       </c>
       <c r="D70">
-        <v>0.042</v>
+        <v>0.0407</v>
       </c>
       <c r="E70" t="s">
         <v>31</v>
@@ -1969,7 +1969,7 @@
         <v>2020</v>
       </c>
       <c r="D71">
-        <v>0.0343</v>
+        <v>0.0314</v>
       </c>
       <c r="E71" t="s">
         <v>32</v>
@@ -1989,7 +1989,7 @@
         <v>2020</v>
       </c>
       <c r="D72">
-        <v>0.0508</v>
+        <v>0.0497</v>
       </c>
       <c r="E72" t="s">
         <v>33</v>
@@ -2009,7 +2009,7 @@
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>0.042</v>
+        <v>0.0405</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
@@ -2029,7 +2029,7 @@
         <v>2020</v>
       </c>
       <c r="D74">
-        <v>0.042</v>
+        <v>0.0405</v>
       </c>
       <c r="E74" t="s">
         <v>35</v>
@@ -2049,7 +2049,7 @@
         <v>2020</v>
       </c>
       <c r="D75">
-        <v>0.042</v>
+        <v>0.0405</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -2069,7 +2069,7 @@
         <v>2020</v>
       </c>
       <c r="D76">
-        <v>0.7488</v>
+        <v>0.7287</v>
       </c>
       <c r="E76" t="s">
         <v>37</v>
@@ -2089,7 +2089,7 @@
         <v>2020</v>
       </c>
       <c r="D77">
-        <v>-0.07000000000000001</v>
+        <v>-0.0683</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
@@ -2109,7 +2109,7 @@
         <v>2020</v>
       </c>
       <c r="D78">
-        <v>-0.1376</v>
+        <v>-0.1329</v>
       </c>
       <c r="E78" t="s">
         <v>39</v>
@@ -2129,7 +2129,7 @@
         <v>2020</v>
       </c>
       <c r="D79">
-        <v>-0.0934</v>
+        <v>-0.08989999999999999</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
@@ -2149,7 +2149,7 @@
         <v>2020</v>
       </c>
       <c r="D80">
-        <v>-0.305</v>
+        <v>-0.2956</v>
       </c>
       <c r="E80" t="s">
         <v>41</v>
@@ -2169,7 +2169,7 @@
         <v>2020</v>
       </c>
       <c r="D81">
-        <v>0.042</v>
+        <v>0.0405</v>
       </c>
       <c r="E81" t="s">
         <v>42</v>
@@ -2189,7 +2189,7 @@
         <v>2020</v>
       </c>
       <c r="D82">
-        <v>0.6661</v>
+        <v>0.6425999999999999</v>
       </c>
       <c r="E82" t="s">
         <v>43</v>
@@ -2209,7 +2209,7 @@
         <v>2020</v>
       </c>
       <c r="D83">
-        <v>0.0159</v>
+        <v>0.0154</v>
       </c>
       <c r="E83" t="s">
         <v>44</v>
@@ -2229,7 +2229,7 @@
         <v>2020</v>
       </c>
       <c r="D84">
-        <v>1.0013</v>
+        <v>1.0372</v>
       </c>
       <c r="E84" t="s">
         <v>45</v>
@@ -2249,7 +2249,7 @@
         <v>2020</v>
       </c>
       <c r="D85">
-        <v>0.0005</v>
+        <v>0.0141</v>
       </c>
       <c r="E85" t="s">
         <v>46</v>
@@ -2289,7 +2289,7 @@
         <v>2020</v>
       </c>
       <c r="D87">
-        <v>0.5095</v>
+        <v>0.4894</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
@@ -2309,7 +2309,7 @@
         <v>2020</v>
       </c>
       <c r="D88">
-        <v>0.0013</v>
+        <v>0.0372</v>
       </c>
       <c r="E88" t="s">
         <v>49</v>
@@ -2329,7 +2329,7 @@
         <v>2020</v>
       </c>
       <c r="D89">
-        <v>0.542616909414054</v>
+        <v>0.537193956017006</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
@@ -2349,7 +2349,7 @@
         <v>2020</v>
       </c>
       <c r="D90">
-        <v>0.3478</v>
+        <v>0.3445</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -2369,7 +2369,7 @@
         <v>2020</v>
       </c>
       <c r="D91">
-        <v>0.8082</v>
+        <v>0.7588</v>
       </c>
       <c r="E91" t="s">
         <v>23</v>
@@ -2389,7 +2389,7 @@
         <v>2020</v>
       </c>
       <c r="D92">
-        <v>0.4156</v>
+        <v>0.4383</v>
       </c>
       <c r="E92" t="s">
         <v>24</v>
@@ -2409,7 +2409,7 @@
         <v>2020</v>
       </c>
       <c r="D93">
-        <v>0.0509</v>
+        <v>0.0478</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
@@ -2429,7 +2429,7 @@
         <v>2020</v>
       </c>
       <c r="D94">
-        <v>-3.4432</v>
+        <v>-3.577</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
@@ -2449,7 +2449,7 @@
         <v>2020</v>
       </c>
       <c r="D95">
-        <v>39.1983</v>
+        <v>40.6152</v>
       </c>
       <c r="E95" t="s">
         <v>27</v>
@@ -2469,7 +2469,7 @@
         <v>2020</v>
       </c>
       <c r="D96">
-        <v>36.1983</v>
+        <v>37.6152</v>
       </c>
       <c r="E96" t="s">
         <v>28</v>
@@ -2489,7 +2489,7 @@
         <v>2020</v>
       </c>
       <c r="D97">
-        <v>-3.4716</v>
+        <v>-3.6065</v>
       </c>
       <c r="E97" t="s">
         <v>29</v>
@@ -2509,7 +2509,7 @@
         <v>2020</v>
       </c>
       <c r="D98">
-        <v>36.7143</v>
+        <v>38.1507</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
@@ -2529,7 +2529,7 @@
         <v>2020</v>
       </c>
       <c r="D99">
-        <v>0.0413</v>
+        <v>0.0391</v>
       </c>
       <c r="E99" t="s">
         <v>31</v>
@@ -2549,7 +2549,7 @@
         <v>2020</v>
       </c>
       <c r="D100">
-        <v>0.0279</v>
+        <v>0.0253</v>
       </c>
       <c r="E100" t="s">
         <v>32</v>
@@ -2569,7 +2569,7 @@
         <v>2020</v>
       </c>
       <c r="D101">
-        <v>0.051</v>
+        <v>0.0485</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
@@ -2589,7 +2589,7 @@
         <v>2020</v>
       </c>
       <c r="D102">
-        <v>0.0403</v>
+        <v>0.0381</v>
       </c>
       <c r="E102" t="s">
         <v>34</v>
@@ -2609,7 +2609,7 @@
         <v>2020</v>
       </c>
       <c r="D103">
-        <v>0.0403</v>
+        <v>0.0381</v>
       </c>
       <c r="E103" t="s">
         <v>35</v>
@@ -2629,7 +2629,7 @@
         <v>2020</v>
       </c>
       <c r="D104">
-        <v>0.0403</v>
+        <v>0.0381</v>
       </c>
       <c r="E104" t="s">
         <v>36</v>
@@ -2649,7 +2649,7 @@
         <v>2020</v>
       </c>
       <c r="D105">
-        <v>0.7359</v>
+        <v>0.7148</v>
       </c>
       <c r="E105" t="s">
         <v>37</v>
@@ -2669,7 +2669,7 @@
         <v>2020</v>
       </c>
       <c r="D106">
-        <v>-0.0658</v>
+        <v>-0.0653</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
@@ -2689,7 +2689,7 @@
         <v>2020</v>
       </c>
       <c r="D107">
-        <v>-0.1221</v>
+        <v>-0.1162</v>
       </c>
       <c r="E107" t="s">
         <v>39</v>
@@ -2709,7 +2709,7 @@
         <v>2020</v>
       </c>
       <c r="D108">
-        <v>-0.0822</v>
+        <v>-0.07679999999999999</v>
       </c>
       <c r="E108" t="s">
         <v>40</v>
@@ -2729,7 +2729,7 @@
         <v>2020</v>
       </c>
       <c r="D109">
-        <v>-0.2145</v>
+        <v>-0.1855</v>
       </c>
       <c r="E109" t="s">
         <v>41</v>
@@ -2749,7 +2749,7 @@
         <v>2020</v>
       </c>
       <c r="D110">
-        <v>0.0403</v>
+        <v>0.0381</v>
       </c>
       <c r="E110" t="s">
         <v>42</v>
@@ -2769,7 +2769,7 @@
         <v>2020</v>
       </c>
       <c r="D111">
-        <v>0.6399</v>
+        <v>0.6054</v>
       </c>
       <c r="E111" t="s">
         <v>43</v>
@@ -2789,7 +2789,7 @@
         <v>2020</v>
       </c>
       <c r="D112">
-        <v>0.0146</v>
+        <v>0.0138</v>
       </c>
       <c r="E112" t="s">
         <v>44</v>
@@ -2809,7 +2809,7 @@
         <v>2020</v>
       </c>
       <c r="D113">
-        <v>1.1879</v>
+        <v>1.1839</v>
       </c>
       <c r="E113" t="s">
         <v>45</v>
@@ -2829,7 +2829,7 @@
         <v>2020</v>
       </c>
       <c r="D114">
-        <v>0.0679</v>
+        <v>0.0663</v>
       </c>
       <c r="E114" t="s">
         <v>46</v>
@@ -2849,7 +2849,7 @@
         <v>2020</v>
       </c>
       <c r="D115">
-        <v>0.0173</v>
+        <v>0.0163</v>
       </c>
       <c r="E115" t="s">
         <v>47</v>
@@ -2869,7 +2869,7 @@
         <v>2020</v>
       </c>
       <c r="D116">
-        <v>0.5123</v>
+        <v>0.5014</v>
       </c>
       <c r="E116" t="s">
         <v>48</v>
@@ -2889,7 +2889,7 @@
         <v>2020</v>
       </c>
       <c r="D117">
-        <v>0.1879</v>
+        <v>0.1839</v>
       </c>
       <c r="E117" t="s">
         <v>49</v>
@@ -5809,7 +5809,7 @@
         <v>2021</v>
       </c>
       <c r="D263">
-        <v>0.6287960670513491</v>
+        <v>0.5889059776748941</v>
       </c>
       <c r="E263" t="s">
         <v>21</v>
@@ -5829,7 +5829,7 @@
         <v>2021</v>
       </c>
       <c r="D264">
-        <v>0.4005</v>
+        <v>0.3767</v>
       </c>
       <c r="E264" t="s">
         <v>22</v>
@@ -5849,7 +5849,7 @@
         <v>2021</v>
       </c>
       <c r="D265">
-        <v>1.3092</v>
+        <v>1.2573</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -5869,7 +5869,7 @@
         <v>2021</v>
       </c>
       <c r="D266">
-        <v>0.2906</v>
+        <v>0.284</v>
       </c>
       <c r="E266" t="s">
         <v>50</v>
@@ -5889,7 +5889,7 @@
         <v>2021</v>
       </c>
       <c r="D267">
-        <v>0.0825</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="E267" t="s">
         <v>25</v>
@@ -5909,7 +5909,7 @@
         <v>2021</v>
       </c>
       <c r="D268">
-        <v>1.3343</v>
+        <v>1.0976</v>
       </c>
       <c r="E268" t="s">
         <v>26</v>
@@ -5929,7 +5929,7 @@
         <v>2021</v>
       </c>
       <c r="D269">
-        <v>17.2805</v>
+        <v>15.8872</v>
       </c>
       <c r="E269" t="s">
         <v>27</v>
@@ -5949,7 +5949,7 @@
         <v>2021</v>
       </c>
       <c r="D270">
-        <v>14.2805</v>
+        <v>12.8872</v>
       </c>
       <c r="E270" t="s">
         <v>28</v>
@@ -5969,7 +5969,7 @@
         <v>2021</v>
       </c>
       <c r="D271">
-        <v>1.3454</v>
+        <v>1.1067</v>
       </c>
       <c r="E271" t="s">
         <v>29</v>
@@ -5989,7 +5989,7 @@
         <v>2021</v>
       </c>
       <c r="D272">
-        <v>14.4947</v>
+        <v>13.0821</v>
       </c>
       <c r="E272" t="s">
         <v>30</v>
@@ -6009,7 +6009,7 @@
         <v>2021</v>
       </c>
       <c r="D273">
-        <v>0.0525</v>
+        <v>0.0514</v>
       </c>
       <c r="E273" t="s">
         <v>31</v>
@@ -6029,7 +6029,7 @@
         <v>2021</v>
       </c>
       <c r="D274">
-        <v>0.07480000000000001</v>
+        <v>0.0697</v>
       </c>
       <c r="E274" t="s">
         <v>32</v>
@@ -6049,7 +6049,7 @@
         <v>2021</v>
       </c>
       <c r="D275">
-        <v>0.0548</v>
+        <v>0.0537</v>
       </c>
       <c r="E275" t="s">
         <v>33</v>
@@ -6069,7 +6069,7 @@
         <v>2021</v>
       </c>
       <c r="D276">
-        <v>0.0504</v>
+        <v>0.0494</v>
       </c>
       <c r="E276" t="s">
         <v>34</v>
@@ -6089,7 +6089,7 @@
         <v>2021</v>
       </c>
       <c r="D277">
-        <v>0.0504</v>
+        <v>0.0494</v>
       </c>
       <c r="E277" t="s">
         <v>35</v>
@@ -6109,7 +6109,7 @@
         <v>2021</v>
       </c>
       <c r="D278">
-        <v>0.0504</v>
+        <v>0.0494</v>
       </c>
       <c r="E278" t="s">
         <v>36</v>
@@ -6129,7 +6129,7 @@
         <v>2021</v>
       </c>
       <c r="D279">
-        <v>0.8139</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E279" t="s">
         <v>37</v>
@@ -6149,7 +6149,7 @@
         <v>2021</v>
       </c>
       <c r="D280">
-        <v>-0.0929</v>
+        <v>-0.0906</v>
       </c>
       <c r="E280" t="s">
         <v>38</v>
@@ -6169,7 +6169,7 @@
         <v>2021</v>
       </c>
       <c r="D281">
-        <v>-0.1696</v>
+        <v>-0.1665</v>
       </c>
       <c r="E281" t="s">
         <v>39</v>
@@ -6189,7 +6189,7 @@
         <v>2021</v>
       </c>
       <c r="D282">
-        <v>-0.0731</v>
+        <v>-0.07870000000000001</v>
       </c>
       <c r="E282" t="s">
         <v>40</v>
@@ -6209,7 +6209,7 @@
         <v>2021</v>
       </c>
       <c r="D283">
-        <v>-0.0731</v>
+        <v>-0.07870000000000001</v>
       </c>
       <c r="E283" t="s">
         <v>41</v>
@@ -6229,7 +6229,7 @@
         <v>2021</v>
       </c>
       <c r="D284">
-        <v>0.0504</v>
+        <v>0.0494</v>
       </c>
       <c r="E284" t="s">
         <v>42</v>
@@ -6249,7 +6249,7 @@
         <v>2021</v>
       </c>
       <c r="D285">
-        <v>0.7999000000000001</v>
+        <v>0.7843</v>
       </c>
       <c r="E285" t="s">
         <v>43</v>
@@ -6269,7 +6269,7 @@
         <v>2021</v>
       </c>
       <c r="D286">
-        <v>0.0228</v>
+        <v>0.0224</v>
       </c>
       <c r="E286" t="s">
         <v>44</v>
@@ -6289,7 +6289,7 @@
         <v>2021</v>
       </c>
       <c r="D287">
-        <v>1.203</v>
+        <v>1.1935</v>
       </c>
       <c r="E287" t="s">
         <v>45</v>
@@ -6309,7 +6309,7 @@
         <v>2021</v>
       </c>
       <c r="D288">
-        <v>0.09180000000000001</v>
+        <v>0.0877</v>
       </c>
       <c r="E288" t="s">
         <v>46</v>
@@ -6329,7 +6329,7 @@
         <v>2021</v>
       </c>
       <c r="D289">
-        <v>0.0274</v>
+        <v>0.0267</v>
       </c>
       <c r="E289" t="s">
         <v>47</v>
@@ -6349,7 +6349,7 @@
         <v>2021</v>
       </c>
       <c r="D290">
-        <v>0.7851</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="E290" t="s">
         <v>48</v>
@@ -6369,7 +6369,7 @@
         <v>2021</v>
       </c>
       <c r="D291">
-        <v>0.203</v>
+        <v>0.1935</v>
       </c>
       <c r="E291" t="s">
         <v>49</v>
@@ -6389,7 +6389,7 @@
         <v>2021</v>
       </c>
       <c r="D292">
-        <v>2.22786155379473</v>
+        <v>2.2412023182151</v>
       </c>
       <c r="E292" t="s">
         <v>21</v>
@@ -6409,7 +6409,7 @@
         <v>2021</v>
       </c>
       <c r="D293">
-        <v>1.2457</v>
+        <v>1.2521</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -6429,7 +6429,7 @@
         <v>2021</v>
       </c>
       <c r="D294">
-        <v>1.0608</v>
+        <v>1.0245</v>
       </c>
       <c r="E294" t="s">
         <v>23</v>
@@ -6449,7 +6449,7 @@
         <v>2021</v>
       </c>
       <c r="D295">
-        <v>1.1442</v>
+        <v>1.191</v>
       </c>
       <c r="E295" t="s">
         <v>50</v>
@@ -6469,7 +6469,7 @@
         <v>2021</v>
       </c>
       <c r="D296">
-        <v>0.0668</v>
+        <v>0.0645</v>
       </c>
       <c r="E296" t="s">
         <v>25</v>
@@ -6489,7 +6489,7 @@
         <v>2021</v>
       </c>
       <c r="D297">
-        <v>0.4002</v>
+        <v>0.166</v>
       </c>
       <c r="E297" t="s">
         <v>26</v>
@@ -6509,7 +6509,7 @@
         <v>2021</v>
       </c>
       <c r="D298">
-        <v>5.6154</v>
+        <v>5.7964</v>
       </c>
       <c r="E298" t="s">
         <v>27</v>
@@ -6529,7 +6529,7 @@
         <v>2021</v>
       </c>
       <c r="D299">
-        <v>2.6154</v>
+        <v>2.7964</v>
       </c>
       <c r="E299" t="s">
         <v>28</v>
@@ -6549,7 +6549,7 @@
         <v>2021</v>
       </c>
       <c r="D300">
-        <v>0.4035</v>
+        <v>0.1674</v>
       </c>
       <c r="E300" t="s">
         <v>29</v>
@@ -6569,7 +6569,7 @@
         <v>2021</v>
       </c>
       <c r="D301">
-        <v>2.6682</v>
+        <v>2.8517</v>
       </c>
       <c r="E301" t="s">
         <v>30</v>
@@ -6589,7 +6589,7 @@
         <v>2021</v>
       </c>
       <c r="D302">
-        <v>0.0442</v>
+        <v>0.0439</v>
       </c>
       <c r="E302" t="s">
         <v>31</v>
@@ -6609,7 +6609,7 @@
         <v>2021</v>
       </c>
       <c r="D303">
-        <v>0.053</v>
+        <v>0.0491</v>
       </c>
       <c r="E303" t="s">
         <v>32</v>
@@ -6629,7 +6629,7 @@
         <v>2021</v>
       </c>
       <c r="D304">
-        <v>0.0414</v>
+        <v>0.0426</v>
       </c>
       <c r="E304" t="s">
         <v>33</v>
@@ -6649,7 +6649,7 @@
         <v>2021</v>
       </c>
       <c r="D305">
-        <v>0.0414</v>
+        <v>0.0412</v>
       </c>
       <c r="E305" t="s">
         <v>34</v>
@@ -6669,7 +6669,7 @@
         <v>2021</v>
       </c>
       <c r="D306">
-        <v>0.0414</v>
+        <v>0.0412</v>
       </c>
       <c r="E306" t="s">
         <v>35</v>
@@ -6689,7 +6689,7 @@
         <v>2021</v>
       </c>
       <c r="D307">
-        <v>0.0414</v>
+        <v>0.0412</v>
       </c>
       <c r="E307" t="s">
         <v>36</v>
@@ -6709,7 +6709,7 @@
         <v>2021</v>
       </c>
       <c r="D308">
-        <v>0.6425999999999999</v>
+        <v>0.637</v>
       </c>
       <c r="E308" t="s">
         <v>37</v>
@@ -6729,7 +6729,7 @@
         <v>2021</v>
       </c>
       <c r="D309">
-        <v>-0.0922</v>
+        <v>-0.08260000000000001</v>
       </c>
       <c r="E309" t="s">
         <v>38</v>
@@ -6749,7 +6749,7 @@
         <v>2021</v>
       </c>
       <c r="D310">
-        <v>-0.1291</v>
+        <v>-0.1299</v>
       </c>
       <c r="E310" t="s">
         <v>39</v>
@@ -6769,7 +6769,7 @@
         <v>2021</v>
       </c>
       <c r="D311">
-        <v>-0.093</v>
+        <v>-0.094</v>
       </c>
       <c r="E311" t="s">
         <v>40</v>
@@ -6789,7 +6789,7 @@
         <v>2021</v>
       </c>
       <c r="D312">
-        <v>-0.1196</v>
+        <v>-0.1329</v>
       </c>
       <c r="E312" t="s">
         <v>41</v>
@@ -6809,7 +6809,7 @@
         <v>2021</v>
       </c>
       <c r="D313">
-        <v>0.0414</v>
+        <v>0.0412</v>
       </c>
       <c r="E313" t="s">
         <v>42</v>
@@ -6829,7 +6829,7 @@
         <v>2021</v>
       </c>
       <c r="D314">
-        <v>0.6573</v>
+        <v>0.6545</v>
       </c>
       <c r="E314" t="s">
         <v>43</v>
@@ -6849,7 +6849,7 @@
         <v>2021</v>
       </c>
       <c r="D315">
-        <v>0.0207</v>
+        <v>0.02</v>
       </c>
       <c r="E315" t="s">
         <v>44</v>
@@ -6869,7 +6869,7 @@
         <v>2021</v>
       </c>
       <c r="D316">
-        <v>1.2612</v>
+        <v>1.2648</v>
       </c>
       <c r="E316" t="s">
         <v>45</v>
@@ -6889,7 +6889,7 @@
         <v>2021</v>
       </c>
       <c r="D317">
-        <v>0.1308</v>
+        <v>0.1286</v>
       </c>
       <c r="E317" t="s">
         <v>46</v>
@@ -6909,7 +6909,7 @@
         <v>2021</v>
       </c>
       <c r="D318">
-        <v>0.0262</v>
+        <v>0.0253</v>
       </c>
       <c r="E318" t="s">
         <v>47</v>
@@ -6929,7 +6929,7 @@
         <v>2021</v>
       </c>
       <c r="D319">
-        <v>0.8472</v>
+        <v>0.7911</v>
       </c>
       <c r="E319" t="s">
         <v>48</v>
@@ -6949,7 +6949,7 @@
         <v>2021</v>
       </c>
       <c r="D320">
-        <v>0.2612</v>
+        <v>0.2648</v>
       </c>
       <c r="E320" t="s">
         <v>49</v>
@@ -6969,7 +6969,7 @@
         <v>2021</v>
       </c>
       <c r="D321">
-        <v>0.1219202442308</v>
+        <v>0.20553144277086</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -6989,7 +6989,7 @@
         <v>2021</v>
       </c>
       <c r="D322">
-        <v>0.0827</v>
+        <v>0.1377</v>
       </c>
       <c r="E322" t="s">
         <v>22</v>
@@ -7009,7 +7009,7 @@
         <v>2021</v>
       </c>
       <c r="D323">
-        <v>0.678</v>
+        <v>0.7693</v>
       </c>
       <c r="E323" t="s">
         <v>23</v>
@@ -7029,7 +7029,7 @@
         <v>2021</v>
       </c>
       <c r="D324">
-        <v>0.0992</v>
+        <v>0.158</v>
       </c>
       <c r="E324" t="s">
         <v>50</v>
@@ -7049,7 +7049,7 @@
         <v>2021</v>
       </c>
       <c r="D325">
-        <v>0.0427</v>
+        <v>0.0485</v>
       </c>
       <c r="E325" t="s">
         <v>25</v>
@@ -7069,7 +7069,7 @@
         <v>2021</v>
       </c>
       <c r="D326">
-        <v>-0.2083</v>
+        <v>-0.6216</v>
       </c>
       <c r="E326" t="s">
         <v>26</v>
@@ -7089,7 +7089,7 @@
         <v>2021</v>
       </c>
       <c r="D327">
-        <v>4.7741</v>
+        <v>6.8269</v>
       </c>
       <c r="E327" t="s">
         <v>27</v>
@@ -7109,7 +7109,7 @@
         <v>2021</v>
       </c>
       <c r="D328">
-        <v>1.7741</v>
+        <v>3.8269</v>
       </c>
       <c r="E328" t="s">
         <v>28</v>
@@ -7129,7 +7129,7 @@
         <v>2021</v>
       </c>
       <c r="D329">
-        <v>-0.21</v>
+        <v>-0.6267</v>
       </c>
       <c r="E329" t="s">
         <v>29</v>
@@ -7149,7 +7149,7 @@
         <v>2021</v>
       </c>
       <c r="D330">
-        <v>1.8152</v>
+        <v>3.8964</v>
       </c>
       <c r="E330" t="s">
         <v>30</v>
@@ -7169,7 +7169,7 @@
         <v>2021</v>
       </c>
       <c r="D331">
-        <v>0.0307</v>
+        <v>0.0359</v>
       </c>
       <c r="E331" t="s">
         <v>31</v>
@@ -7189,7 +7189,7 @@
         <v>2021</v>
       </c>
       <c r="D332">
-        <v>0.0279</v>
+        <v>0.0301</v>
       </c>
       <c r="E332" t="s">
         <v>32</v>
@@ -7209,7 +7209,7 @@
         <v>2021</v>
       </c>
       <c r="D333">
-        <v>0.03</v>
+        <v>0.0369</v>
       </c>
       <c r="E333" t="s">
         <v>33</v>
@@ -7229,7 +7229,7 @@
         <v>2021</v>
       </c>
       <c r="D334">
-        <v>0.0301</v>
+        <v>0.0351</v>
       </c>
       <c r="E334" t="s">
         <v>34</v>
@@ -7249,7 +7249,7 @@
         <v>2021</v>
       </c>
       <c r="D335">
-        <v>0.0301</v>
+        <v>0.0351</v>
       </c>
       <c r="E335" t="s">
         <v>35</v>
@@ -7269,7 +7269,7 @@
         <v>2021</v>
       </c>
       <c r="D336">
-        <v>0.0301</v>
+        <v>0.0351</v>
       </c>
       <c r="E336" t="s">
         <v>36</v>
@@ -7289,7 +7289,7 @@
         <v>2021</v>
       </c>
       <c r="D337">
-        <v>0.6118</v>
+        <v>0.6821</v>
       </c>
       <c r="E337" t="s">
         <v>37</v>
@@ -7309,7 +7309,7 @@
         <v>2021</v>
       </c>
       <c r="D338">
-        <v>-0.06619999999999999</v>
+        <v>-0.0684</v>
       </c>
       <c r="E338" t="s">
         <v>38</v>
@@ -7329,7 +7329,7 @@
         <v>2021</v>
       </c>
       <c r="D339">
-        <v>-0.0975</v>
+        <v>-0.1134</v>
       </c>
       <c r="E339" t="s">
         <v>39</v>
@@ -7349,7 +7349,7 @@
         <v>2021</v>
       </c>
       <c r="D340">
-        <v>-0.0699</v>
+        <v>-0.0823</v>
       </c>
       <c r="E340" t="s">
         <v>40</v>
@@ -7369,7 +7369,7 @@
         <v>2021</v>
       </c>
       <c r="D341">
-        <v>-0.1035</v>
+        <v>-0.1471</v>
       </c>
       <c r="E341" t="s">
         <v>41</v>
@@ -7389,7 +7389,7 @@
         <v>2021</v>
       </c>
       <c r="D342">
-        <v>0.0301</v>
+        <v>0.0351</v>
       </c>
       <c r="E342" t="s">
         <v>42</v>
@@ -7409,7 +7409,7 @@
         <v>2021</v>
       </c>
       <c r="D343">
-        <v>0.4773</v>
+        <v>0.5565</v>
       </c>
       <c r="E343" t="s">
         <v>43</v>
@@ -7429,7 +7429,7 @@
         <v>2021</v>
       </c>
       <c r="D344">
-        <v>0.0151</v>
+        <v>0.0167</v>
       </c>
       <c r="E344" t="s">
         <v>44</v>
@@ -7449,7 +7449,7 @@
         <v>2021</v>
       </c>
       <c r="D345">
-        <v>1.0816</v>
+        <v>1.1027</v>
       </c>
       <c r="E345" t="s">
         <v>45</v>
@@ -7469,7 +7469,7 @@
         <v>2021</v>
       </c>
       <c r="D346">
-        <v>0.041</v>
+        <v>0.0489</v>
       </c>
       <c r="E346" t="s">
         <v>46</v>
@@ -7489,7 +7489,7 @@
         <v>2021</v>
       </c>
       <c r="D347">
-        <v>0.0163</v>
+        <v>0.0184</v>
       </c>
       <c r="E347" t="s">
         <v>47</v>
@@ -7509,7 +7509,7 @@
         <v>2021</v>
       </c>
       <c r="D348">
-        <v>0.7346</v>
+        <v>0.6599</v>
       </c>
       <c r="E348" t="s">
         <v>48</v>
@@ -7529,7 +7529,7 @@
         <v>2021</v>
       </c>
       <c r="D349">
-        <v>0.08160000000000001</v>
+        <v>0.1027</v>
       </c>
       <c r="E349" t="s">
         <v>49</v>
@@ -9869,7 +9869,7 @@
         <v>2022</v>
       </c>
       <c r="D466">
-        <v>-0.5412418011368541</v>
+        <v>-0.5521173078875879</v>
       </c>
       <c r="E466" t="s">
         <v>21</v>
@@ -9889,7 +9889,7 @@
         <v>2022</v>
       </c>
       <c r="D467">
-        <v>-0.4758</v>
+        <v>-0.4862</v>
       </c>
       <c r="E467" t="s">
         <v>22</v>
@@ -9909,7 +9909,7 @@
         <v>2022</v>
       </c>
       <c r="D468">
-        <v>0.6836</v>
+        <v>0.6812</v>
       </c>
       <c r="E468" t="s">
         <v>23</v>
@@ -9929,7 +9929,7 @@
         <v>2022</v>
       </c>
       <c r="D469">
-        <v>-0.7439</v>
+        <v>-0.761</v>
       </c>
       <c r="E469" t="s">
         <v>51</v>
@@ -9949,7 +9949,7 @@
         <v>2022</v>
       </c>
       <c r="D470">
-        <v>0.0431</v>
+        <v>0.0429</v>
       </c>
       <c r="E470" t="s">
         <v>25</v>
@@ -9969,7 +9969,7 @@
         <v>2022</v>
       </c>
       <c r="D471">
-        <v>-0.5981</v>
+        <v>-0.5979</v>
       </c>
       <c r="E471" t="s">
         <v>26</v>
@@ -9989,7 +9989,7 @@
         <v>2022</v>
       </c>
       <c r="D472">
-        <v>5.4676</v>
+        <v>5.5885</v>
       </c>
       <c r="E472" t="s">
         <v>27</v>
@@ -10009,7 +10009,7 @@
         <v>2022</v>
       </c>
       <c r="D473">
-        <v>2.4676</v>
+        <v>2.5885</v>
       </c>
       <c r="E473" t="s">
         <v>28</v>
@@ -10029,7 +10029,7 @@
         <v>2022</v>
       </c>
       <c r="D474">
-        <v>-0.604</v>
+        <v>-0.6039</v>
       </c>
       <c r="E474" t="s">
         <v>29</v>
@@ -10049,7 +10049,7 @@
         <v>2022</v>
       </c>
       <c r="D475">
-        <v>2.5287</v>
+        <v>2.6516</v>
       </c>
       <c r="E475" t="s">
         <v>30</v>
@@ -10069,7 +10069,7 @@
         <v>2022</v>
       </c>
       <c r="D476">
-        <v>0.0323</v>
+        <v>0.0322</v>
       </c>
       <c r="E476" t="s">
         <v>31</v>
@@ -10109,7 +10109,7 @@
         <v>2022</v>
       </c>
       <c r="D478">
-        <v>0.0334</v>
+        <v>0.0333</v>
       </c>
       <c r="E478" t="s">
         <v>33</v>
@@ -10129,7 +10129,7 @@
         <v>2022</v>
       </c>
       <c r="D479">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="E479" t="s">
         <v>34</v>
@@ -10149,7 +10149,7 @@
         <v>2022</v>
       </c>
       <c r="D480">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="E480" t="s">
         <v>35</v>
@@ -10169,7 +10169,7 @@
         <v>2022</v>
       </c>
       <c r="D481">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="E481" t="s">
         <v>36</v>
@@ -10189,7 +10189,7 @@
         <v>2022</v>
       </c>
       <c r="D482">
-        <v>0.6901</v>
+        <v>0.6914</v>
       </c>
       <c r="E482" t="s">
         <v>37</v>
@@ -10209,7 +10209,7 @@
         <v>2022</v>
       </c>
       <c r="D483">
-        <v>-0.07630000000000001</v>
+        <v>-0.0771</v>
       </c>
       <c r="E483" t="s">
         <v>38</v>
@@ -10229,7 +10229,7 @@
         <v>2022</v>
       </c>
       <c r="D484">
-        <v>-0.1082</v>
+        <v>-0.1085</v>
       </c>
       <c r="E484" t="s">
         <v>39</v>
@@ -10249,7 +10249,7 @@
         <v>2022</v>
       </c>
       <c r="D485">
-        <v>-0.0772</v>
+        <v>-0.0769</v>
       </c>
       <c r="E485" t="s">
         <v>40</v>
@@ -10269,7 +10269,7 @@
         <v>2022</v>
       </c>
       <c r="D486">
-        <v>-0.1229</v>
+        <v>-0.1235</v>
       </c>
       <c r="E486" t="s">
         <v>41</v>
@@ -10289,7 +10289,7 @@
         <v>2022</v>
       </c>
       <c r="D487">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="E487" t="s">
         <v>42</v>
@@ -10309,7 +10309,7 @@
         <v>2022</v>
       </c>
       <c r="D488">
-        <v>0.5249</v>
+        <v>0.5239</v>
       </c>
       <c r="E488" t="s">
         <v>43</v>
@@ -10349,7 +10349,7 @@
         <v>2022</v>
       </c>
       <c r="D490">
-        <v>0.9018</v>
+        <v>0.8963</v>
       </c>
       <c r="E490" t="s">
         <v>45</v>
@@ -10369,7 +10369,7 @@
         <v>2022</v>
       </c>
       <c r="D491">
-        <v>-0.0488</v>
+        <v>-0.0515</v>
       </c>
       <c r="E491" t="s">
         <v>46</v>
@@ -10389,7 +10389,7 @@
         <v>2022</v>
       </c>
       <c r="D492">
-        <v>0.0148</v>
+        <v>0.0147</v>
       </c>
       <c r="E492" t="s">
         <v>47</v>
@@ -10409,7 +10409,7 @@
         <v>2022</v>
       </c>
       <c r="D493">
-        <v>0.6274999999999999</v>
+        <v>0.6232</v>
       </c>
       <c r="E493" t="s">
         <v>48</v>
@@ -10429,7 +10429,7 @@
         <v>2022</v>
       </c>
       <c r="D494">
-        <v>-0.0982</v>
+        <v>-0.1037</v>
       </c>
       <c r="E494" t="s">
         <v>49</v>
@@ -11029,7 +11029,7 @@
         <v>2022</v>
       </c>
       <c r="D524">
-        <v>-0.487065771312947</v>
+        <v>-0.509841054295923</v>
       </c>
       <c r="E524" t="s">
         <v>21</v>
@@ -11049,7 +11049,7 @@
         <v>2022</v>
       </c>
       <c r="D525">
-        <v>-0.425</v>
+        <v>-0.4463</v>
       </c>
       <c r="E525" t="s">
         <v>22</v>
@@ -11069,7 +11069,7 @@
         <v>2022</v>
       </c>
       <c r="D526">
-        <v>0.5931</v>
+        <v>0.6006</v>
       </c>
       <c r="E526" t="s">
         <v>23</v>
@@ -11089,7 +11089,7 @@
         <v>2022</v>
       </c>
       <c r="D527">
-        <v>-0.7753</v>
+        <v>-0.7993</v>
       </c>
       <c r="E527" t="s">
         <v>51</v>
@@ -11109,7 +11109,7 @@
         <v>2022</v>
       </c>
       <c r="D528">
-        <v>0.0374</v>
+        <v>0.0378</v>
       </c>
       <c r="E528" t="s">
         <v>25</v>
@@ -11129,7 +11129,7 @@
         <v>2022</v>
       </c>
       <c r="D529">
-        <v>-0.8428</v>
+        <v>-0.8622</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -11149,7 +11149,7 @@
         <v>2022</v>
       </c>
       <c r="D530">
-        <v>6.0054</v>
+        <v>5.9503</v>
       </c>
       <c r="E530" t="s">
         <v>27</v>
@@ -11169,7 +11169,7 @@
         <v>2022</v>
       </c>
       <c r="D531">
-        <v>3.0054</v>
+        <v>2.9503</v>
       </c>
       <c r="E531" t="s">
         <v>28</v>
@@ -11189,7 +11189,7 @@
         <v>2022</v>
       </c>
       <c r="D532">
-        <v>-0.8512</v>
+        <v>-0.8708</v>
       </c>
       <c r="E532" t="s">
         <v>29</v>
@@ -11209,7 +11209,7 @@
         <v>2022</v>
       </c>
       <c r="D533">
-        <v>3.0754</v>
+        <v>3.0194</v>
       </c>
       <c r="E533" t="s">
         <v>30</v>
@@ -11229,7 +11229,7 @@
         <v>2022</v>
       </c>
       <c r="D534">
-        <v>0.0284</v>
+        <v>0.0289</v>
       </c>
       <c r="E534" t="s">
         <v>31</v>
@@ -11249,7 +11249,7 @@
         <v>2022</v>
       </c>
       <c r="D535">
-        <v>0.0213</v>
+        <v>0.0209</v>
       </c>
       <c r="E535" t="s">
         <v>32</v>
@@ -11269,7 +11269,7 @@
         <v>2022</v>
       </c>
       <c r="D536">
-        <v>0.03</v>
+        <v>0.0305</v>
       </c>
       <c r="E536" t="s">
         <v>33</v>
@@ -11289,7 +11289,7 @@
         <v>2022</v>
       </c>
       <c r="D537">
-        <v>0.0291</v>
+        <v>0.0297</v>
       </c>
       <c r="E537" t="s">
         <v>34</v>
@@ -11309,7 +11309,7 @@
         <v>2022</v>
       </c>
       <c r="D538">
-        <v>0.0291</v>
+        <v>0.0297</v>
       </c>
       <c r="E538" t="s">
         <v>35</v>
@@ -11329,7 +11329,7 @@
         <v>2022</v>
       </c>
       <c r="D539">
-        <v>0.0291</v>
+        <v>0.0297</v>
       </c>
       <c r="E539" t="s">
         <v>36</v>
@@ -11349,7 +11349,7 @@
         <v>2022</v>
       </c>
       <c r="D540">
-        <v>0.6851</v>
+        <v>0.6879</v>
       </c>
       <c r="E540" t="s">
         <v>37</v>
@@ -11369,7 +11369,7 @@
         <v>2022</v>
       </c>
       <c r="D541">
-        <v>-0.0623</v>
+        <v>-0.06610000000000001</v>
       </c>
       <c r="E541" t="s">
         <v>38</v>
@@ -11389,7 +11389,7 @@
         <v>2022</v>
       </c>
       <c r="D542">
-        <v>-0.093</v>
+        <v>-0.0954</v>
       </c>
       <c r="E542" t="s">
         <v>39</v>
@@ -11409,7 +11409,7 @@
         <v>2022</v>
       </c>
       <c r="D543">
-        <v>-0.06900000000000001</v>
+        <v>-0.0702</v>
       </c>
       <c r="E543" t="s">
         <v>40</v>
@@ -11429,7 +11429,7 @@
         <v>2022</v>
       </c>
       <c r="D544">
-        <v>-0.114</v>
+        <v>-0.1152</v>
       </c>
       <c r="E544" t="s">
         <v>41</v>
@@ -11449,7 +11449,7 @@
         <v>2022</v>
       </c>
       <c r="D545">
-        <v>0.0291</v>
+        <v>0.0297</v>
       </c>
       <c r="E545" t="s">
         <v>42</v>
@@ -11469,7 +11469,7 @@
         <v>2022</v>
       </c>
       <c r="D546">
-        <v>0.4622</v>
+        <v>0.4713</v>
       </c>
       <c r="E546" t="s">
         <v>43</v>
@@ -11489,7 +11489,7 @@
         <v>2022</v>
       </c>
       <c r="D547">
-        <v>0.0141</v>
+        <v>0.0144</v>
       </c>
       <c r="E547" t="s">
         <v>44</v>
@@ -11509,7 +11509,7 @@
         <v>2022</v>
       </c>
       <c r="D548">
-        <v>0.8953</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="E548" t="s">
         <v>45</v>
@@ -11529,7 +11529,7 @@
         <v>2022</v>
       </c>
       <c r="D549">
-        <v>-0.0508</v>
+        <v>-0.0542</v>
       </c>
       <c r="E549" t="s">
         <v>46</v>
@@ -11549,7 +11549,7 @@
         <v>2022</v>
       </c>
       <c r="D550">
-        <v>0.0127</v>
+        <v>0.0128</v>
       </c>
       <c r="E550" t="s">
         <v>47</v>
@@ -11569,7 +11569,7 @@
         <v>2022</v>
       </c>
       <c r="D551">
-        <v>0.6207</v>
+        <v>0.6297</v>
       </c>
       <c r="E551" t="s">
         <v>48</v>
@@ -11589,7 +11589,7 @@
         <v>2022</v>
       </c>
       <c r="D552">
-        <v>-0.1047</v>
+        <v>-0.1114</v>
       </c>
       <c r="E552" t="s">
         <v>49</v>
@@ -11609,7 +11609,7 @@
         <v>2022</v>
       </c>
       <c r="D553">
-        <v>-0.773598808419358</v>
+        <v>-0.761031408432329</v>
       </c>
       <c r="E553" t="s">
         <v>21</v>
@@ -11629,7 +11629,7 @@
         <v>2022</v>
       </c>
       <c r="D554">
-        <v>-0.7081</v>
+        <v>-0.6947</v>
       </c>
       <c r="E554" t="s">
         <v>22</v>
@@ -11649,7 +11649,7 @@
         <v>2022</v>
       </c>
       <c r="D555">
-        <v>0.8384</v>
+        <v>0.8101</v>
       </c>
       <c r="E555" t="s">
         <v>23</v>
@@ -11669,7 +11669,7 @@
         <v>2022</v>
       </c>
       <c r="D556">
-        <v>-0.8648</v>
+        <v>-0.8792</v>
       </c>
       <c r="E556" t="s">
         <v>51</v>
@@ -11689,7 +11689,7 @@
         <v>2022</v>
       </c>
       <c r="D557">
-        <v>0.0528</v>
+        <v>0.051</v>
       </c>
       <c r="E557" t="s">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         <v>2022</v>
       </c>
       <c r="D558">
-        <v>-0.4537</v>
+        <v>-0.5668</v>
       </c>
       <c r="E558" t="s">
         <v>26</v>
@@ -11729,7 +11729,7 @@
         <v>2022</v>
       </c>
       <c r="D559">
-        <v>8.5511</v>
+        <v>8.283899999999999</v>
       </c>
       <c r="E559" t="s">
         <v>27</v>
@@ -11749,7 +11749,7 @@
         <v>2022</v>
       </c>
       <c r="D560">
-        <v>5.5511</v>
+        <v>5.2839</v>
       </c>
       <c r="E560" t="s">
         <v>28</v>
@@ -11769,7 +11769,7 @@
         <v>2022</v>
       </c>
       <c r="D561">
-        <v>-0.4582</v>
+        <v>-0.5724</v>
       </c>
       <c r="E561" t="s">
         <v>29</v>
@@ -11789,7 +11789,7 @@
         <v>2022</v>
       </c>
       <c r="D562">
-        <v>5.6635</v>
+        <v>5.3919</v>
       </c>
       <c r="E562" t="s">
         <v>30</v>
@@ -11809,7 +11809,7 @@
         <v>2022</v>
       </c>
       <c r="D563">
-        <v>0.0385</v>
+        <v>0.0376</v>
       </c>
       <c r="E563" t="s">
         <v>31</v>
@@ -11829,7 +11829,7 @@
         <v>2022</v>
       </c>
       <c r="D564">
-        <v>0.0351</v>
+        <v>0.0327</v>
       </c>
       <c r="E564" t="s">
         <v>32</v>
@@ -11849,7 +11849,7 @@
         <v>2022</v>
       </c>
       <c r="D565">
-        <v>0.0402</v>
+        <v>0.0392</v>
       </c>
       <c r="E565" t="s">
         <v>33</v>
@@ -11869,7 +11869,7 @@
         <v>2022</v>
       </c>
       <c r="D566">
-        <v>0.0402</v>
+        <v>0.0392</v>
       </c>
       <c r="E566" t="s">
         <v>34</v>
@@ -11889,7 +11889,7 @@
         <v>2022</v>
       </c>
       <c r="D567">
-        <v>0.0402</v>
+        <v>0.0392</v>
       </c>
       <c r="E567" t="s">
         <v>35</v>
@@ -11909,7 +11909,7 @@
         <v>2022</v>
       </c>
       <c r="D568">
-        <v>0.0402</v>
+        <v>0.0392</v>
       </c>
       <c r="E568" t="s">
         <v>36</v>
@@ -11929,7 +11929,7 @@
         <v>2022</v>
       </c>
       <c r="D569">
-        <v>0.8732</v>
+        <v>0.8548</v>
       </c>
       <c r="E569" t="s">
         <v>37</v>
@@ -11949,7 +11949,7 @@
         <v>2022</v>
       </c>
       <c r="D570">
-        <v>-0.08799999999999999</v>
+        <v>-0.0848</v>
       </c>
       <c r="E570" t="s">
         <v>38</v>
@@ -11969,7 +11969,7 @@
         <v>2022</v>
       </c>
       <c r="D571">
-        <v>-0.1242</v>
+        <v>-0.1214</v>
       </c>
       <c r="E571" t="s">
         <v>39</v>
@@ -11989,7 +11989,7 @@
         <v>2022</v>
       </c>
       <c r="D572">
-        <v>-0.09089999999999999</v>
+        <v>-0.0896</v>
       </c>
       <c r="E572" t="s">
         <v>40</v>
@@ -12009,7 +12009,7 @@
         <v>2022</v>
       </c>
       <c r="D573">
-        <v>-0.1667</v>
+        <v>-0.1671</v>
       </c>
       <c r="E573" t="s">
         <v>41</v>
@@ -12029,7 +12029,7 @@
         <v>2022</v>
       </c>
       <c r="D574">
-        <v>0.0402</v>
+        <v>0.0392</v>
       </c>
       <c r="E574" t="s">
         <v>42</v>
@@ -12049,7 +12049,7 @@
         <v>2022</v>
       </c>
       <c r="D575">
-        <v>0.6385999999999999</v>
+        <v>0.623</v>
       </c>
       <c r="E575" t="s">
         <v>43</v>
@@ -12069,7 +12069,7 @@
         <v>2022</v>
       </c>
       <c r="D576">
-        <v>0.0202</v>
+        <v>0.0197</v>
       </c>
       <c r="E576" t="s">
         <v>44</v>
@@ -12089,7 +12089,7 @@
         <v>2022</v>
       </c>
       <c r="D577">
-        <v>0.8299</v>
+        <v>0.8297</v>
       </c>
       <c r="E577" t="s">
         <v>45</v>
@@ -12129,7 +12129,7 @@
         <v>2022</v>
       </c>
       <c r="D579">
-        <v>0.0168</v>
+        <v>0.0163</v>
       </c>
       <c r="E579" t="s">
         <v>47</v>
@@ -12149,7 +12149,7 @@
         <v>2022</v>
       </c>
       <c r="D580">
-        <v>0.5957</v>
+        <v>0.6126</v>
       </c>
       <c r="E580" t="s">
         <v>48</v>
@@ -12169,7 +12169,7 @@
         <v>2022</v>
       </c>
       <c r="D581">
-        <v>-0.1701</v>
+        <v>-0.1703</v>
       </c>
       <c r="E581" t="s">
         <v>49</v>
@@ -14509,7 +14509,7 @@
         <v>2020</v>
       </c>
       <c r="D698">
-        <v>1.10026305928507</v>
+        <v>0.962843811274434</v>
       </c>
       <c r="E698" t="s">
         <v>21</v>
@@ -14529,7 +14529,7 @@
         <v>2020</v>
       </c>
       <c r="D699">
-        <v>0.6667999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="E699" t="s">
         <v>22</v>
@@ -14549,7 +14549,7 @@
         <v>2020</v>
       </c>
       <c r="D700">
-        <v>0.7821</v>
+        <v>0.7835</v>
       </c>
       <c r="E700" t="s">
         <v>23</v>
@@ -14569,7 +14569,7 @@
         <v>2020</v>
       </c>
       <c r="D701">
-        <v>0.8338</v>
+        <v>0.7363</v>
       </c>
       <c r="E701" t="s">
         <v>24</v>
@@ -14589,7 +14589,7 @@
         <v>2020</v>
       </c>
       <c r="D702">
-        <v>0.0493</v>
+        <v>0.0494</v>
       </c>
       <c r="E702" t="s">
         <v>25</v>
@@ -14609,7 +14609,7 @@
         <v>2020</v>
       </c>
       <c r="D703">
-        <v>-2.7034</v>
+        <v>-2.7495</v>
       </c>
       <c r="E703" t="s">
         <v>26</v>
@@ -14629,7 +14629,7 @@
         <v>2020</v>
       </c>
       <c r="D704">
-        <v>25.867</v>
+        <v>26.3958</v>
       </c>
       <c r="E704" t="s">
         <v>27</v>
@@ -14649,7 +14649,7 @@
         <v>2020</v>
       </c>
       <c r="D705">
-        <v>22.867</v>
+        <v>23.3958</v>
       </c>
       <c r="E705" t="s">
         <v>28</v>
@@ -14669,7 +14669,7 @@
         <v>2020</v>
       </c>
       <c r="D706">
-        <v>-2.7257</v>
+        <v>-2.7722</v>
       </c>
       <c r="E706" t="s">
         <v>29</v>
@@ -14689,7 +14689,7 @@
         <v>2020</v>
       </c>
       <c r="D707">
-        <v>23.199</v>
+        <v>23.7352</v>
       </c>
       <c r="E707" t="s">
         <v>30</v>
@@ -14709,7 +14709,7 @@
         <v>2020</v>
       </c>
       <c r="D708">
-        <v>0.0399</v>
+        <v>0.0401</v>
       </c>
       <c r="E708" t="s">
         <v>31</v>
@@ -14729,7 +14729,7 @@
         <v>2020</v>
       </c>
       <c r="D709">
-        <v>0.0264</v>
+        <v>0.0263</v>
       </c>
       <c r="E709" t="s">
         <v>32</v>
@@ -14749,7 +14749,7 @@
         <v>2020</v>
       </c>
       <c r="D710">
-        <v>0.0497</v>
+        <v>0.0499</v>
       </c>
       <c r="E710" t="s">
         <v>33</v>
@@ -14769,7 +14769,7 @@
         <v>2020</v>
       </c>
       <c r="D711">
-        <v>0.0386</v>
+        <v>0.0389</v>
       </c>
       <c r="E711" t="s">
         <v>34</v>
@@ -14789,7 +14789,7 @@
         <v>2020</v>
       </c>
       <c r="D712">
-        <v>0.0386</v>
+        <v>0.0389</v>
       </c>
       <c r="E712" t="s">
         <v>35</v>
@@ -14809,7 +14809,7 @@
         <v>2020</v>
       </c>
       <c r="D713">
-        <v>0.0386</v>
+        <v>0.0389</v>
       </c>
       <c r="E713" t="s">
         <v>36</v>
@@ -14829,7 +14829,7 @@
         <v>2020</v>
       </c>
       <c r="D714">
-        <v>0.6951000000000001</v>
+        <v>0.7015</v>
       </c>
       <c r="E714" t="s">
         <v>37</v>
@@ -14849,7 +14849,7 @@
         <v>2020</v>
       </c>
       <c r="D715">
-        <v>-0.0772</v>
+        <v>-0.0781</v>
       </c>
       <c r="E715" t="s">
         <v>38</v>
@@ -14869,7 +14869,7 @@
         <v>2020</v>
       </c>
       <c r="D716">
-        <v>-0.1246</v>
+        <v>-0.1254</v>
       </c>
       <c r="E716" t="s">
         <v>39</v>
@@ -14889,7 +14889,7 @@
         <v>2020</v>
       </c>
       <c r="D717">
-        <v>-0.0859</v>
+        <v>-0.0861</v>
       </c>
       <c r="E717" t="s">
         <v>40</v>
@@ -14909,7 +14909,7 @@
         <v>2020</v>
       </c>
       <c r="D718">
-        <v>-0.2861</v>
+        <v>-0.2868</v>
       </c>
       <c r="E718" t="s">
         <v>41</v>
@@ -14929,7 +14929,7 @@
         <v>2020</v>
       </c>
       <c r="D719">
-        <v>0.0386</v>
+        <v>0.0389</v>
       </c>
       <c r="E719" t="s">
         <v>42</v>
@@ -14949,7 +14949,7 @@
         <v>2020</v>
       </c>
       <c r="D720">
-        <v>0.6133</v>
+        <v>0.617</v>
       </c>
       <c r="E720" t="s">
         <v>43</v>
@@ -14989,7 +14989,7 @@
         <v>2020</v>
       </c>
       <c r="D722">
-        <v>1.2378</v>
+        <v>1.2248</v>
       </c>
       <c r="E722" t="s">
         <v>45</v>
@@ -15009,7 +15009,7 @@
         <v>2020</v>
       </c>
       <c r="D723">
-        <v>0.08799999999999999</v>
+        <v>0.0829</v>
       </c>
       <c r="E723" t="s">
         <v>46</v>
@@ -15029,7 +15029,7 @@
         <v>2020</v>
       </c>
       <c r="D724">
-        <v>0.0177</v>
+        <v>0.0176</v>
       </c>
       <c r="E724" t="s">
         <v>47</v>
@@ -15049,7 +15049,7 @@
         <v>2020</v>
       </c>
       <c r="D725">
-        <v>0.4852</v>
+        <v>0.4863</v>
       </c>
       <c r="E725" t="s">
         <v>48</v>
@@ -15069,7 +15069,7 @@
         <v>2020</v>
       </c>
       <c r="D726">
-        <v>0.2378</v>
+        <v>0.2248</v>
       </c>
       <c r="E726" t="s">
         <v>49</v>
@@ -15089,7 +15089,7 @@
         <v>2020</v>
       </c>
       <c r="D727">
-        <v>1.63669883950525</v>
+        <v>1.26333145142259</v>
       </c>
       <c r="E727" t="s">
         <v>21</v>
@@ -15109,7 +15109,7 @@
         <v>2020</v>
       </c>
       <c r="D728">
-        <v>0.9494</v>
+        <v>0.7549</v>
       </c>
       <c r="E728" t="s">
         <v>22</v>
@@ -15129,7 +15129,7 @@
         <v>2020</v>
       </c>
       <c r="D729">
-        <v>0.6262</v>
+        <v>0.641</v>
       </c>
       <c r="E729" t="s">
         <v>23</v>
@@ -15149,7 +15149,7 @@
         <v>2020</v>
       </c>
       <c r="D730">
-        <v>1.4887</v>
+        <v>1.1535</v>
       </c>
       <c r="E730" t="s">
         <v>24</v>
@@ -15169,7 +15169,7 @@
         <v>2020</v>
       </c>
       <c r="D731">
-        <v>0.0394</v>
+        <v>0.0404</v>
       </c>
       <c r="E731" t="s">
         <v>25</v>
@@ -15189,7 +15189,7 @@
         <v>2020</v>
       </c>
       <c r="D732">
-        <v>-4.0634</v>
+        <v>-4.0813</v>
       </c>
       <c r="E732" t="s">
         <v>26</v>
@@ -15209,7 +15209,7 @@
         <v>2020</v>
       </c>
       <c r="D733">
-        <v>52.5686</v>
+        <v>50.271</v>
       </c>
       <c r="E733" t="s">
         <v>27</v>
@@ -15229,7 +15229,7 @@
         <v>2020</v>
       </c>
       <c r="D734">
-        <v>49.5686</v>
+        <v>47.271</v>
       </c>
       <c r="E734" t="s">
         <v>28</v>
@@ -15249,7 +15249,7 @@
         <v>2020</v>
       </c>
       <c r="D735">
-        <v>-4.097</v>
+        <v>-4.115</v>
       </c>
       <c r="E735" t="s">
         <v>29</v>
@@ -15269,7 +15269,7 @@
         <v>2020</v>
       </c>
       <c r="D736">
-        <v>50.269</v>
+        <v>47.9398</v>
       </c>
       <c r="E736" t="s">
         <v>30</v>
@@ -15289,7 +15289,7 @@
         <v>2020</v>
       </c>
       <c r="D737">
-        <v>0.0316</v>
+        <v>0.0329</v>
       </c>
       <c r="E737" t="s">
         <v>31</v>
@@ -15309,7 +15309,7 @@
         <v>2020</v>
       </c>
       <c r="D738">
-        <v>0.0239</v>
+        <v>0.0225</v>
       </c>
       <c r="E738" t="s">
         <v>32</v>
@@ -15329,7 +15329,7 @@
         <v>2020</v>
       </c>
       <c r="D739">
-        <v>0.0407</v>
+        <v>0.0427</v>
       </c>
       <c r="E739" t="s">
         <v>33</v>
@@ -15349,7 +15349,7 @@
         <v>2020</v>
       </c>
       <c r="D740">
-        <v>0.0304</v>
+        <v>0.0318</v>
       </c>
       <c r="E740" t="s">
         <v>34</v>
@@ -15369,7 +15369,7 @@
         <v>2020</v>
       </c>
       <c r="D741">
-        <v>0.0304</v>
+        <v>0.0318</v>
       </c>
       <c r="E741" t="s">
         <v>35</v>
@@ -15389,7 +15389,7 @@
         <v>2020</v>
       </c>
       <c r="D742">
-        <v>0.0304</v>
+        <v>0.0318</v>
       </c>
       <c r="E742" t="s">
         <v>36</v>
@@ -15409,7 +15409,7 @@
         <v>2020</v>
       </c>
       <c r="D743">
-        <v>0.5965</v>
+        <v>0.6223</v>
       </c>
       <c r="E743" t="s">
         <v>37</v>
@@ -15429,7 +15429,7 @@
         <v>2020</v>
       </c>
       <c r="D744">
-        <v>-0.0469</v>
+        <v>-0.0517</v>
       </c>
       <c r="E744" t="s">
         <v>38</v>
@@ -15449,7 +15449,7 @@
         <v>2020</v>
       </c>
       <c r="D745">
-        <v>-0.0859</v>
+        <v>-0.0922</v>
       </c>
       <c r="E745" t="s">
         <v>39</v>
@@ -15469,7 +15469,7 @@
         <v>2020</v>
       </c>
       <c r="D746">
-        <v>-0.0551</v>
+        <v>-0.0588</v>
       </c>
       <c r="E746" t="s">
         <v>40</v>
@@ -15489,7 +15489,7 @@
         <v>2020</v>
       </c>
       <c r="D747">
-        <v>-0.0551</v>
+        <v>-0.0588</v>
       </c>
       <c r="E747" t="s">
         <v>41</v>
@@ -15509,7 +15509,7 @@
         <v>2020</v>
       </c>
       <c r="D748">
-        <v>0.0304</v>
+        <v>0.0318</v>
       </c>
       <c r="E748" t="s">
         <v>42</v>
@@ -15529,7 +15529,7 @@
         <v>2020</v>
       </c>
       <c r="D749">
-        <v>0.483</v>
+        <v>0.505</v>
       </c>
       <c r="E749" t="s">
         <v>43</v>
@@ -15549,7 +15549,7 @@
         <v>2020</v>
       </c>
       <c r="D750">
-        <v>0.009900000000000001</v>
+        <v>0.0107</v>
       </c>
       <c r="E750" t="s">
         <v>44</v>
@@ -15569,7 +15569,7 @@
         <v>2020</v>
       </c>
       <c r="D751">
-        <v>1.361</v>
+        <v>1.2981</v>
       </c>
       <c r="E751" t="s">
         <v>45</v>
@@ -15589,7 +15589,7 @@
         <v>2020</v>
       </c>
       <c r="D752">
-        <v>0.1169</v>
+        <v>0.1001</v>
       </c>
       <c r="E752" t="s">
         <v>46</v>
@@ -15609,7 +15609,7 @@
         <v>2020</v>
       </c>
       <c r="D753">
-        <v>0.0134</v>
+        <v>0.0139</v>
       </c>
       <c r="E753" t="s">
         <v>47</v>
@@ -15629,7 +15629,7 @@
         <v>2020</v>
       </c>
       <c r="D754">
-        <v>0.4974</v>
+        <v>0.4617</v>
       </c>
       <c r="E754" t="s">
         <v>48</v>
@@ -15649,7 +15649,7 @@
         <v>2020</v>
       </c>
       <c r="D755">
-        <v>0.361</v>
+        <v>0.2981</v>
       </c>
       <c r="E755" t="s">
         <v>49</v>
@@ -15669,7 +15669,7 @@
         <v>2020</v>
       </c>
       <c r="D756">
-        <v>-0.444916487689347</v>
+        <v>-0.0130827352312475</v>
       </c>
       <c r="E756" t="s">
         <v>21</v>
@@ -15689,7 +15689,7 @@
         <v>2020</v>
       </c>
       <c r="D757">
-        <v>-0.3332</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E757" t="s">
         <v>22</v>
@@ -15709,7 +15709,7 @@
         <v>2020</v>
       </c>
       <c r="D758">
-        <v>0.8488</v>
+        <v>0.793</v>
       </c>
       <c r="E758" t="s">
         <v>23</v>
@@ -15729,7 +15729,7 @@
         <v>2020</v>
       </c>
       <c r="D759">
-        <v>-0.3995</v>
+        <v>-0.0225</v>
       </c>
       <c r="E759" t="s">
         <v>24</v>
@@ -15749,7 +15749,7 @@
         <v>2020</v>
       </c>
       <c r="D760">
-        <v>0.0535</v>
+        <v>0.05</v>
       </c>
       <c r="E760" t="s">
         <v>25</v>
@@ -15769,7 +15769,7 @@
         <v>2020</v>
       </c>
       <c r="D761">
-        <v>-2.3631</v>
+        <v>-2.7821</v>
       </c>
       <c r="E761" t="s">
         <v>26</v>
@@ -15789,7 +15789,7 @@
         <v>2020</v>
       </c>
       <c r="D762">
-        <v>25.8968</v>
+        <v>28.6805</v>
       </c>
       <c r="E762" t="s">
         <v>27</v>
@@ -15809,7 +15809,7 @@
         <v>2020</v>
       </c>
       <c r="D763">
-        <v>22.8968</v>
+        <v>25.6805</v>
       </c>
       <c r="E763" t="s">
         <v>28</v>
@@ -15829,7 +15829,7 @@
         <v>2020</v>
       </c>
       <c r="D764">
-        <v>-2.3826</v>
+        <v>-2.8051</v>
       </c>
       <c r="E764" t="s">
         <v>29</v>
@@ -15849,7 +15849,7 @@
         <v>2020</v>
       </c>
       <c r="D765">
-        <v>23.2293</v>
+        <v>26.0513</v>
       </c>
       <c r="E765" t="s">
         <v>30</v>
@@ -15869,7 +15869,7 @@
         <v>2020</v>
       </c>
       <c r="D766">
-        <v>0.042</v>
+        <v>0.0403</v>
       </c>
       <c r="E766" t="s">
         <v>31</v>
@@ -15889,7 +15889,7 @@
         <v>2020</v>
       </c>
       <c r="D767">
-        <v>0.0343</v>
+        <v>0.0283</v>
       </c>
       <c r="E767" t="s">
         <v>32</v>
@@ -15909,7 +15909,7 @@
         <v>2020</v>
       </c>
       <c r="D768">
-        <v>0.0508</v>
+        <v>0.0505</v>
       </c>
       <c r="E768" t="s">
         <v>33</v>
@@ -15929,7 +15929,7 @@
         <v>2020</v>
       </c>
       <c r="D769">
-        <v>0.042</v>
+        <v>0.0398</v>
       </c>
       <c r="E769" t="s">
         <v>34</v>
@@ -15949,7 +15949,7 @@
         <v>2020</v>
       </c>
       <c r="D770">
-        <v>0.042</v>
+        <v>0.0398</v>
       </c>
       <c r="E770" t="s">
         <v>35</v>
@@ -15969,7 +15969,7 @@
         <v>2020</v>
       </c>
       <c r="D771">
-        <v>0.042</v>
+        <v>0.0398</v>
       </c>
       <c r="E771" t="s">
         <v>36</v>
@@ -15989,7 +15989,7 @@
         <v>2020</v>
       </c>
       <c r="D772">
-        <v>0.7488</v>
+        <v>0.7241</v>
       </c>
       <c r="E772" t="s">
         <v>37</v>
@@ -16009,7 +16009,7 @@
         <v>2020</v>
       </c>
       <c r="D773">
-        <v>-0.07000000000000001</v>
+        <v>-0.0704</v>
       </c>
       <c r="E773" t="s">
         <v>38</v>
@@ -16029,7 +16029,7 @@
         <v>2020</v>
       </c>
       <c r="D774">
-        <v>-0.1376</v>
+        <v>-0.1291</v>
       </c>
       <c r="E774" t="s">
         <v>39</v>
@@ -16049,7 +16049,7 @@
         <v>2020</v>
       </c>
       <c r="D775">
-        <v>-0.0934</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="E775" t="s">
         <v>40</v>
@@ -16069,7 +16069,7 @@
         <v>2020</v>
       </c>
       <c r="D776">
-        <v>-0.305</v>
+        <v>-0.2876</v>
       </c>
       <c r="E776" t="s">
         <v>41</v>
@@ -16089,7 +16089,7 @@
         <v>2020</v>
       </c>
       <c r="D777">
-        <v>0.042</v>
+        <v>0.0398</v>
       </c>
       <c r="E777" t="s">
         <v>42</v>
@@ -16109,7 +16109,7 @@
         <v>2020</v>
       </c>
       <c r="D778">
-        <v>0.6661</v>
+        <v>0.6319</v>
       </c>
       <c r="E778" t="s">
         <v>43</v>
@@ -16129,7 +16129,7 @@
         <v>2020</v>
       </c>
       <c r="D779">
-        <v>0.0159</v>
+        <v>0.0146</v>
       </c>
       <c r="E779" t="s">
         <v>44</v>
@@ -16149,7 +16149,7 @@
         <v>2020</v>
       </c>
       <c r="D780">
-        <v>1.0013</v>
+        <v>1.0949</v>
       </c>
       <c r="E780" t="s">
         <v>45</v>
@@ -16169,7 +16169,7 @@
         <v>2020</v>
       </c>
       <c r="D781">
-        <v>0.0005</v>
+        <v>0.0349</v>
       </c>
       <c r="E781" t="s">
         <v>46</v>
@@ -16189,7 +16189,7 @@
         <v>2020</v>
       </c>
       <c r="D782">
-        <v>0.0159</v>
+        <v>0.016</v>
       </c>
       <c r="E782" t="s">
         <v>47</v>
@@ -16209,7 +16209,7 @@
         <v>2020</v>
       </c>
       <c r="D783">
-        <v>0.5095</v>
+        <v>0.4585</v>
       </c>
       <c r="E783" t="s">
         <v>48</v>
@@ -16229,7 +16229,7 @@
         <v>2020</v>
       </c>
       <c r="D784">
-        <v>0.0013</v>
+        <v>0.0949</v>
       </c>
       <c r="E784" t="s">
         <v>49</v>
@@ -16249,7 +16249,7 @@
         <v>2020</v>
       </c>
       <c r="D785">
-        <v>1.1787814673387</v>
+        <v>0.943225841220076</v>
       </c>
       <c r="E785" t="s">
         <v>21</v>
@@ -16269,7 +16269,7 @@
         <v>2020</v>
       </c>
       <c r="D786">
-        <v>0.7095</v>
+        <v>0.58</v>
       </c>
       <c r="E786" t="s">
         <v>22</v>
@@ -16289,7 +16289,7 @@
         <v>2020</v>
       </c>
       <c r="D787">
-        <v>1.0416</v>
+        <v>0.9677</v>
       </c>
       <c r="E787" t="s">
         <v>23</v>
@@ -16309,7 +16309,7 @@
         <v>2020</v>
       </c>
       <c r="D788">
-        <v>0.6666</v>
+        <v>0.5849</v>
       </c>
       <c r="E788" t="s">
         <v>24</v>
@@ -16329,7 +16329,7 @@
         <v>2020</v>
       </c>
       <c r="D789">
-        <v>0.06560000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="E789" t="s">
         <v>25</v>
@@ -16349,7 +16349,7 @@
         <v>2020</v>
       </c>
       <c r="D790">
-        <v>-2.0043</v>
+        <v>-2.1033</v>
       </c>
       <c r="E790" t="s">
         <v>26</v>
@@ -16369,7 +16369,7 @@
         <v>2020</v>
       </c>
       <c r="D791">
-        <v>24.112</v>
+        <v>24.5763</v>
       </c>
       <c r="E791" t="s">
         <v>27</v>
@@ -16389,7 +16389,7 @@
         <v>2020</v>
       </c>
       <c r="D792">
-        <v>21.112</v>
+        <v>21.5763</v>
       </c>
       <c r="E792" t="s">
         <v>28</v>
@@ -16409,7 +16409,7 @@
         <v>2020</v>
       </c>
       <c r="D793">
-        <v>-2.0209</v>
+        <v>-2.1207</v>
       </c>
       <c r="E793" t="s">
         <v>29</v>
@@ -16429,7 +16429,7 @@
         <v>2020</v>
       </c>
       <c r="D794">
-        <v>21.4199</v>
+        <v>21.8905</v>
       </c>
       <c r="E794" t="s">
         <v>30</v>
@@ -16449,7 +16449,7 @@
         <v>2020</v>
       </c>
       <c r="D795">
-        <v>0.05</v>
+        <v>0.0468</v>
       </c>
       <c r="E795" t="s">
         <v>31</v>
@@ -16469,7 +16469,7 @@
         <v>2020</v>
       </c>
       <c r="D796">
-        <v>0.0421</v>
+        <v>0.0383</v>
       </c>
       <c r="E796" t="s">
         <v>32</v>
@@ -16489,7 +16489,7 @@
         <v>2020</v>
       </c>
       <c r="D797">
-        <v>0.0577</v>
+        <v>0.0544</v>
       </c>
       <c r="E797" t="s">
         <v>33</v>
@@ -16509,7 +16509,7 @@
         <v>2020</v>
       </c>
       <c r="D798">
-        <v>0.0481</v>
+        <v>0.0451</v>
       </c>
       <c r="E798" t="s">
         <v>34</v>
@@ -16529,7 +16529,7 @@
         <v>2020</v>
       </c>
       <c r="D799">
-        <v>0.0481</v>
+        <v>0.0451</v>
       </c>
       <c r="E799" t="s">
         <v>35</v>
@@ -16549,7 +16549,7 @@
         <v>2020</v>
       </c>
       <c r="D800">
-        <v>0.0481</v>
+        <v>0.0451</v>
       </c>
       <c r="E800" t="s">
         <v>36</v>
@@ -16569,7 +16569,7 @@
         <v>2020</v>
       </c>
       <c r="D801">
-        <v>0.7363</v>
+        <v>0.7065</v>
       </c>
       <c r="E801" t="s">
         <v>37</v>
@@ -16589,7 +16589,7 @@
         <v>2020</v>
       </c>
       <c r="D802">
-        <v>-0.08790000000000001</v>
+        <v>-0.0804</v>
       </c>
       <c r="E802" t="s">
         <v>38</v>
@@ -16609,7 +16609,7 @@
         <v>2020</v>
       </c>
       <c r="D803">
-        <v>-0.1489</v>
+        <v>-0.139</v>
       </c>
       <c r="E803" t="s">
         <v>39</v>
@@ -16629,7 +16629,7 @@
         <v>2020</v>
       </c>
       <c r="D804">
-        <v>-0.1076</v>
+        <v>-0.101</v>
       </c>
       <c r="E804" t="s">
         <v>40</v>
@@ -16649,7 +16649,7 @@
         <v>2020</v>
       </c>
       <c r="D805">
-        <v>-0.3496</v>
+        <v>-0.3315</v>
       </c>
       <c r="E805" t="s">
         <v>41</v>
@@ -16669,7 +16669,7 @@
         <v>2020</v>
       </c>
       <c r="D806">
-        <v>0.0481</v>
+        <v>0.0451</v>
       </c>
       <c r="E806" t="s">
         <v>42</v>
@@ -16689,7 +16689,7 @@
         <v>2020</v>
       </c>
       <c r="D807">
-        <v>0.7632</v>
+        <v>0.7164</v>
       </c>
       <c r="E807" t="s">
         <v>43</v>
@@ -16709,7 +16709,7 @@
         <v>2020</v>
       </c>
       <c r="D808">
-        <v>0.0192</v>
+        <v>0.0181</v>
       </c>
       <c r="E808" t="s">
         <v>44</v>
@@ -16729,7 +16729,7 @@
         <v>2020</v>
       </c>
       <c r="D809">
-        <v>1.2424</v>
+        <v>1.2196</v>
       </c>
       <c r="E809" t="s">
         <v>45</v>
@@ -16749,7 +16749,7 @@
         <v>2020</v>
       </c>
       <c r="D810">
-        <v>0.0969</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="E810" t="s">
         <v>46</v>
@@ -16769,7 +16769,7 @@
         <v>2020</v>
       </c>
       <c r="D811">
-        <v>0.0239</v>
+        <v>0.022</v>
       </c>
       <c r="E811" t="s">
         <v>47</v>
@@ -16789,7 +16789,7 @@
         <v>2020</v>
       </c>
       <c r="D812">
-        <v>0.607</v>
+        <v>0.5824</v>
       </c>
       <c r="E812" t="s">
         <v>48</v>
@@ -16809,7 +16809,7 @@
         <v>2020</v>
       </c>
       <c r="D813">
-        <v>0.2424</v>
+        <v>0.2196</v>
       </c>
       <c r="E813" t="s">
         <v>49</v>
@@ -19149,7 +19149,7 @@
         <v>2021</v>
       </c>
       <c r="D930">
-        <v>0.414263614056092</v>
+        <v>0.442141578737072</v>
       </c>
       <c r="E930" t="s">
         <v>21</v>
@@ -19169,7 +19169,7 @@
         <v>2021</v>
       </c>
       <c r="D931">
-        <v>0.2704</v>
+        <v>0.2876</v>
       </c>
       <c r="E931" t="s">
         <v>22</v>
@@ -19189,7 +19189,7 @@
         <v>2021</v>
       </c>
       <c r="D932">
-        <v>0.9987</v>
+        <v>0.96</v>
       </c>
       <c r="E932" t="s">
         <v>23</v>
@@ -19209,7 +19209,7 @@
         <v>2021</v>
       </c>
       <c r="D933">
-        <v>0.2526</v>
+        <v>0.2805</v>
       </c>
       <c r="E933" t="s">
         <v>50</v>
@@ -19229,7 +19229,7 @@
         <v>2021</v>
       </c>
       <c r="D934">
-        <v>0.0629</v>
+        <v>0.0605</v>
       </c>
       <c r="E934" t="s">
         <v>25</v>
@@ -19249,7 +19249,7 @@
         <v>2021</v>
       </c>
       <c r="D935">
-        <v>-0.8441</v>
+        <v>-0.9694</v>
       </c>
       <c r="E935" t="s">
         <v>26</v>
@@ -19269,7 +19269,7 @@
         <v>2021</v>
       </c>
       <c r="D936">
-        <v>10.4719</v>
+        <v>10.6319</v>
       </c>
       <c r="E936" t="s">
         <v>27</v>
@@ -19289,7 +19289,7 @@
         <v>2021</v>
       </c>
       <c r="D937">
-        <v>7.4719</v>
+        <v>7.6319</v>
       </c>
       <c r="E937" t="s">
         <v>28</v>
@@ -19309,7 +19309,7 @@
         <v>2021</v>
       </c>
       <c r="D938">
-        <v>-0.8511</v>
+        <v>-0.9774</v>
       </c>
       <c r="E938" t="s">
         <v>29</v>
@@ -19329,7 +19329,7 @@
         <v>2021</v>
       </c>
       <c r="D939">
-        <v>7.5919</v>
+        <v>7.7541</v>
       </c>
       <c r="E939" t="s">
         <v>30</v>
@@ -19349,7 +19349,7 @@
         <v>2021</v>
       </c>
       <c r="D940">
-        <v>0.047</v>
+        <v>0.0457</v>
       </c>
       <c r="E940" t="s">
         <v>31</v>
@@ -19369,7 +19369,7 @@
         <v>2021</v>
       </c>
       <c r="D941">
-        <v>0.0405</v>
+        <v>0.0377</v>
       </c>
       <c r="E941" t="s">
         <v>32</v>
@@ -19389,7 +19389,7 @@
         <v>2021</v>
       </c>
       <c r="D942">
-        <v>0.0516</v>
+        <v>0.0505</v>
       </c>
       <c r="E942" t="s">
         <v>33</v>
@@ -19409,7 +19409,7 @@
         <v>2021</v>
       </c>
       <c r="D943">
-        <v>0.0457</v>
+        <v>0.0444</v>
       </c>
       <c r="E943" t="s">
         <v>34</v>
@@ -19429,7 +19429,7 @@
         <v>2021</v>
       </c>
       <c r="D944">
-        <v>0.0457</v>
+        <v>0.0444</v>
       </c>
       <c r="E944" t="s">
         <v>35</v>
@@ -19449,7 +19449,7 @@
         <v>2021</v>
       </c>
       <c r="D945">
-        <v>0.0457</v>
+        <v>0.0444</v>
       </c>
       <c r="E945" t="s">
         <v>36</v>
@@ -19469,7 +19469,7 @@
         <v>2021</v>
       </c>
       <c r="D946">
-        <v>0.7844</v>
+        <v>0.7658</v>
       </c>
       <c r="E946" t="s">
         <v>37</v>
@@ -19489,7 +19489,7 @@
         <v>2021</v>
       </c>
       <c r="D947">
-        <v>-0.0916</v>
+        <v>-0.0902</v>
       </c>
       <c r="E947" t="s">
         <v>38</v>
@@ -19509,7 +19509,7 @@
         <v>2021</v>
       </c>
       <c r="D948">
-        <v>-0.1491</v>
+        <v>-0.1455</v>
       </c>
       <c r="E948" t="s">
         <v>39</v>
@@ -19529,7 +19529,7 @@
         <v>2021</v>
       </c>
       <c r="D949">
-        <v>-0.1051</v>
+        <v>-0.1027</v>
       </c>
       <c r="E949" t="s">
         <v>40</v>
@@ -19549,7 +19549,7 @@
         <v>2021</v>
       </c>
       <c r="D950">
-        <v>-0.232</v>
+        <v>-0.2319</v>
       </c>
       <c r="E950" t="s">
         <v>41</v>
@@ -19569,7 +19569,7 @@
         <v>2021</v>
       </c>
       <c r="D951">
-        <v>0.0457</v>
+        <v>0.0444</v>
       </c>
       <c r="E951" t="s">
         <v>42</v>
@@ -19589,7 +19589,7 @@
         <v>2021</v>
       </c>
       <c r="D952">
-        <v>0.7247</v>
+        <v>0.705</v>
       </c>
       <c r="E952" t="s">
         <v>43</v>
@@ -19609,7 +19609,7 @@
         <v>2021</v>
       </c>
       <c r="D953">
-        <v>0.0201</v>
+        <v>0.0194</v>
       </c>
       <c r="E953" t="s">
         <v>44</v>
@@ -19629,7 +19629,7 @@
         <v>2021</v>
       </c>
       <c r="D954">
-        <v>1.1509</v>
+        <v>1.1511</v>
       </c>
       <c r="E954" t="s">
         <v>45</v>
@@ -19649,7 +19649,7 @@
         <v>2021</v>
       </c>
       <c r="D955">
-        <v>0.0665</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="E955" t="s">
         <v>46</v>
@@ -19669,7 +19669,7 @@
         <v>2021</v>
       </c>
       <c r="D956">
-        <v>0.0232</v>
+        <v>0.0224</v>
       </c>
       <c r="E956" t="s">
         <v>47</v>
@@ -19689,7 +19689,7 @@
         <v>2021</v>
       </c>
       <c r="D957">
-        <v>0.5983000000000001</v>
+        <v>0.589</v>
       </c>
       <c r="E957" t="s">
         <v>48</v>
@@ -19709,7 +19709,7 @@
         <v>2021</v>
       </c>
       <c r="D958">
-        <v>0.1509</v>
+        <v>0.1511</v>
       </c>
       <c r="E958" t="s">
         <v>49</v>
@@ -19729,7 +19729,7 @@
         <v>2021</v>
       </c>
       <c r="D959">
-        <v>2.16607530711983</v>
+        <v>1.8386223859973</v>
       </c>
       <c r="E959" t="s">
         <v>21</v>
@@ -19749,7 +19749,7 @@
         <v>2021</v>
       </c>
       <c r="D960">
-        <v>1.216</v>
+        <v>1.0551</v>
       </c>
       <c r="E960" t="s">
         <v>22</v>
@@ -19769,7 +19769,7 @@
         <v>2021</v>
       </c>
       <c r="D961">
-        <v>1.183</v>
+        <v>1.0911</v>
       </c>
       <c r="E961" t="s">
         <v>23</v>
@@ -19789,7 +19789,7 @@
         <v>2021</v>
       </c>
       <c r="D962">
-        <v>1.0012</v>
+        <v>0.9402</v>
       </c>
       <c r="E962" t="s">
         <v>50</v>
@@ -19809,7 +19809,7 @@
         <v>2021</v>
       </c>
       <c r="D963">
-        <v>0.0745</v>
+        <v>0.0687</v>
       </c>
       <c r="E963" t="s">
         <v>25</v>
@@ -19829,7 +19829,7 @@
         <v>2021</v>
       </c>
       <c r="D964">
-        <v>0.09520000000000001</v>
+        <v>-0.4259</v>
       </c>
       <c r="E964" t="s">
         <v>26</v>
@@ -19849,7 +19849,7 @@
         <v>2021</v>
       </c>
       <c r="D965">
-        <v>10.8437</v>
+        <v>9.082599999999999</v>
       </c>
       <c r="E965" t="s">
         <v>27</v>
@@ -19869,7 +19869,7 @@
         <v>2021</v>
       </c>
       <c r="D966">
-        <v>7.8437</v>
+        <v>6.0826</v>
       </c>
       <c r="E966" t="s">
         <v>28</v>
@@ -19889,7 +19889,7 @@
         <v>2021</v>
       </c>
       <c r="D967">
-        <v>0.096</v>
+        <v>-0.4294</v>
       </c>
       <c r="E967" t="s">
         <v>29</v>
@@ -19909,7 +19909,7 @@
         <v>2021</v>
       </c>
       <c r="D968">
-        <v>7.9689</v>
+        <v>6.1834</v>
       </c>
       <c r="E968" t="s">
         <v>30</v>
@@ -19929,7 +19929,7 @@
         <v>2021</v>
       </c>
       <c r="D969">
-        <v>0.0523</v>
+        <v>0.05</v>
       </c>
       <c r="E969" t="s">
         <v>31</v>
@@ -19949,7 +19949,7 @@
         <v>2021</v>
       </c>
       <c r="D970">
-        <v>0.055</v>
+        <v>0.0464</v>
       </c>
       <c r="E970" t="s">
         <v>32</v>
@@ -19969,7 +19969,7 @@
         <v>2021</v>
       </c>
       <c r="D971">
-        <v>0.0546</v>
+        <v>0.0529</v>
       </c>
       <c r="E971" t="s">
         <v>33</v>
@@ -19989,7 +19989,7 @@
         <v>2021</v>
       </c>
       <c r="D972">
-        <v>0.0495</v>
+        <v>0.0476</v>
       </c>
       <c r="E972" t="s">
         <v>34</v>
@@ -20009,7 +20009,7 @@
         <v>2021</v>
       </c>
       <c r="D973">
-        <v>0.0495</v>
+        <v>0.0476</v>
       </c>
       <c r="E973" t="s">
         <v>35</v>
@@ -20029,7 +20029,7 @@
         <v>2021</v>
       </c>
       <c r="D974">
-        <v>0.0495</v>
+        <v>0.0476</v>
       </c>
       <c r="E974" t="s">
         <v>36</v>
@@ -20049,7 +20049,7 @@
         <v>2021</v>
       </c>
       <c r="D975">
-        <v>0.7672</v>
+        <v>0.7602</v>
       </c>
       <c r="E975" t="s">
         <v>37</v>
@@ -20069,7 +20069,7 @@
         <v>2021</v>
       </c>
       <c r="D976">
-        <v>-0.0892</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="E976" t="s">
         <v>38</v>
@@ -20089,7 +20089,7 @@
         <v>2021</v>
       </c>
       <c r="D977">
-        <v>-0.1623</v>
+        <v>-0.1552</v>
       </c>
       <c r="E977" t="s">
         <v>39</v>
@@ -20109,7 +20109,7 @@
         <v>2021</v>
       </c>
       <c r="D978">
-        <v>-0.1026</v>
+        <v>-0.1072</v>
       </c>
       <c r="E978" t="s">
         <v>40</v>
@@ -20129,7 +20129,7 @@
         <v>2021</v>
       </c>
       <c r="D979">
-        <v>-0.14</v>
+        <v>-0.2064</v>
       </c>
       <c r="E979" t="s">
         <v>41</v>
@@ -20149,7 +20149,7 @@
         <v>2021</v>
       </c>
       <c r="D980">
-        <v>0.0495</v>
+        <v>0.0476</v>
       </c>
       <c r="E980" t="s">
         <v>42</v>
@@ -20169,7 +20169,7 @@
         <v>2021</v>
       </c>
       <c r="D981">
-        <v>0.7858000000000001</v>
+        <v>0.7553</v>
       </c>
       <c r="E981" t="s">
         <v>43</v>
@@ -20189,7 +20189,7 @@
         <v>2021</v>
       </c>
       <c r="D982">
-        <v>0.0224</v>
+        <v>0.0214</v>
       </c>
       <c r="E982" t="s">
         <v>44</v>
@@ -20209,7 +20209,7 @@
         <v>2021</v>
       </c>
       <c r="D983">
-        <v>1.267</v>
+        <v>1.2475</v>
       </c>
       <c r="E983" t="s">
         <v>45</v>
@@ -20229,7 +20229,7 @@
         <v>2021</v>
       </c>
       <c r="D984">
-        <v>0.1209</v>
+        <v>0.1115</v>
       </c>
       <c r="E984" t="s">
         <v>46</v>
@@ -20249,7 +20249,7 @@
         <v>2021</v>
       </c>
       <c r="D985">
-        <v>0.0284</v>
+        <v>0.0267</v>
       </c>
       <c r="E985" t="s">
         <v>47</v>
@@ -20269,7 +20269,7 @@
         <v>2021</v>
       </c>
       <c r="D986">
-        <v>0.6982</v>
+        <v>0.647</v>
       </c>
       <c r="E986" t="s">
         <v>48</v>
@@ -20289,7 +20289,7 @@
         <v>2021</v>
       </c>
       <c r="D987">
-        <v>0.267</v>
+        <v>0.2475</v>
       </c>
       <c r="E987" t="s">
         <v>49</v>
@@ -20309,7 +20309,7 @@
         <v>2021</v>
       </c>
       <c r="D988">
-        <v>0.479684130505098</v>
+        <v>0.821238013078182</v>
       </c>
       <c r="E988" t="s">
         <v>21</v>
@@ -20329,7 +20329,7 @@
         <v>2021</v>
       </c>
       <c r="D989">
-        <v>0.3106</v>
+        <v>0.5127</v>
       </c>
       <c r="E989" t="s">
         <v>22</v>
@@ -20349,7 +20349,7 @@
         <v>2021</v>
       </c>
       <c r="D990">
-        <v>0.9233</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="E990" t="s">
         <v>23</v>
@@ -20369,7 +20369,7 @@
         <v>2021</v>
       </c>
       <c r="D991">
-        <v>0.3162</v>
+        <v>0.5299</v>
       </c>
       <c r="E991" t="s">
         <v>50</v>
@@ -20389,7 +20389,7 @@
         <v>2021</v>
       </c>
       <c r="D992">
-        <v>0.0582</v>
+        <v>0.0584</v>
       </c>
       <c r="E992" t="s">
         <v>25</v>
@@ -20409,7 +20409,7 @@
         <v>2021</v>
       </c>
       <c r="D993">
-        <v>-0.5967</v>
+        <v>-0.7223000000000001</v>
       </c>
       <c r="E993" t="s">
         <v>26</v>
@@ -20429,7 +20429,7 @@
         <v>2021</v>
       </c>
       <c r="D994">
-        <v>7.6428</v>
+        <v>7.9077</v>
       </c>
       <c r="E994" t="s">
         <v>27</v>
@@ -20449,7 +20449,7 @@
         <v>2021</v>
       </c>
       <c r="D995">
-        <v>4.6428</v>
+        <v>4.9077</v>
       </c>
       <c r="E995" t="s">
         <v>28</v>
@@ -20469,7 +20469,7 @@
         <v>2021</v>
       </c>
       <c r="D996">
-        <v>-0.6016</v>
+        <v>-0.7282999999999999</v>
       </c>
       <c r="E996" t="s">
         <v>29</v>
@@ -20489,7 +20489,7 @@
         <v>2021</v>
       </c>
       <c r="D997">
-        <v>4.7237</v>
+        <v>4.9922</v>
       </c>
       <c r="E997" t="s">
         <v>30</v>
@@ -20509,7 +20509,7 @@
         <v>2021</v>
       </c>
       <c r="D998">
-        <v>0.0425</v>
+        <v>0.0434</v>
       </c>
       <c r="E998" t="s">
         <v>31</v>
@@ -20529,7 +20529,7 @@
         <v>2021</v>
       </c>
       <c r="D999">
-        <v>0.0382</v>
+        <v>0.0371</v>
       </c>
       <c r="E999" t="s">
         <v>32</v>
@@ -20549,7 +20549,7 @@
         <v>2021</v>
       </c>
       <c r="D1000">
-        <v>0.0442</v>
+        <v>0.0462</v>
       </c>
       <c r="E1000" t="s">
         <v>33</v>
@@ -20569,7 +20569,7 @@
         <v>2021</v>
       </c>
       <c r="D1001">
-        <v>0.0412</v>
+        <v>0.0418</v>
       </c>
       <c r="E1001" t="s">
         <v>34</v>
@@ -20589,7 +20589,7 @@
         <v>2021</v>
       </c>
       <c r="D1002">
-        <v>0.0412</v>
+        <v>0.0418</v>
       </c>
       <c r="E1002" t="s">
         <v>35</v>
@@ -20609,7 +20609,7 @@
         <v>2021</v>
       </c>
       <c r="D1003">
-        <v>0.0412</v>
+        <v>0.0418</v>
       </c>
       <c r="E1003" t="s">
         <v>36</v>
@@ -20629,7 +20629,7 @@
         <v>2021</v>
       </c>
       <c r="D1004">
-        <v>0.6653</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="E1004" t="s">
         <v>37</v>
@@ -20669,7 +20669,7 @@
         <v>2021</v>
       </c>
       <c r="D1006">
-        <v>-0.1321</v>
+        <v>-0.1364</v>
       </c>
       <c r="E1006" t="s">
         <v>39</v>
@@ -20689,7 +20689,7 @@
         <v>2021</v>
       </c>
       <c r="D1007">
-        <v>-0.09669999999999999</v>
+        <v>-0.09810000000000001</v>
       </c>
       <c r="E1007" t="s">
         <v>40</v>
@@ -20709,7 +20709,7 @@
         <v>2021</v>
       </c>
       <c r="D1008">
-        <v>-0.1814</v>
+        <v>-0.19</v>
       </c>
       <c r="E1008" t="s">
         <v>41</v>
@@ -20729,7 +20729,7 @@
         <v>2021</v>
       </c>
       <c r="D1009">
-        <v>0.0412</v>
+        <v>0.0418</v>
       </c>
       <c r="E1009" t="s">
         <v>42</v>
@@ -20749,7 +20749,7 @@
         <v>2021</v>
       </c>
       <c r="D1010">
-        <v>0.6538</v>
+        <v>0.6641</v>
       </c>
       <c r="E1010" t="s">
         <v>43</v>
@@ -20769,7 +20769,7 @@
         <v>2021</v>
       </c>
       <c r="D1011">
-        <v>0.0192</v>
+        <v>0.019</v>
       </c>
       <c r="E1011" t="s">
         <v>44</v>
@@ -20789,7 +20789,7 @@
         <v>2021</v>
       </c>
       <c r="D1012">
-        <v>1.1466</v>
+        <v>1.1798</v>
       </c>
       <c r="E1012" t="s">
         <v>45</v>
@@ -20809,7 +20809,7 @@
         <v>2021</v>
       </c>
       <c r="D1013">
-        <v>0.06850000000000001</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="E1013" t="s">
         <v>46</v>
@@ -20829,7 +20829,7 @@
         <v>2021</v>
       </c>
       <c r="D1014">
-        <v>0.0221</v>
+        <v>0.0224</v>
       </c>
       <c r="E1014" t="s">
         <v>47</v>
@@ -20849,7 +20849,7 @@
         <v>2021</v>
       </c>
       <c r="D1015">
-        <v>0.6731</v>
+        <v>0.616</v>
       </c>
       <c r="E1015" t="s">
         <v>48</v>
@@ -20869,7 +20869,7 @@
         <v>2021</v>
       </c>
       <c r="D1016">
-        <v>0.1466</v>
+        <v>0.1798</v>
       </c>
       <c r="E1016" t="s">
         <v>49</v>
@@ -20889,7 +20889,7 @@
         <v>2021</v>
       </c>
       <c r="D1017">
-        <v>-0.07647458684682761</v>
+        <v>0.30734273031541</v>
       </c>
       <c r="E1017" t="s">
         <v>21</v>
@@ -20909,7 +20909,7 @@
         <v>2021</v>
       </c>
       <c r="D1018">
-        <v>-0.0534</v>
+        <v>0.2033</v>
       </c>
       <c r="E1018" t="s">
         <v>22</v>
@@ -20929,7 +20929,7 @@
         <v>2021</v>
       </c>
       <c r="D1019">
-        <v>0.8136</v>
+        <v>0.9296</v>
       </c>
       <c r="E1019" t="s">
         <v>23</v>
@@ -20949,7 +20949,7 @@
         <v>2021</v>
       </c>
       <c r="D1020">
-        <v>-0.0823</v>
+        <v>0.2002</v>
       </c>
       <c r="E1020" t="s">
         <v>50</v>
@@ -20969,7 +20969,7 @@
         <v>2021</v>
       </c>
       <c r="D1021">
-        <v>0.0513</v>
+        <v>0.0586</v>
       </c>
       <c r="E1021" t="s">
         <v>25</v>
@@ -20989,7 +20989,7 @@
         <v>2021</v>
       </c>
       <c r="D1022">
-        <v>-0.9965000000000001</v>
+        <v>-1.2168</v>
       </c>
       <c r="E1022" t="s">
         <v>26</v>
@@ -21009,7 +21009,7 @@
         <v>2021</v>
       </c>
       <c r="D1023">
-        <v>8.145799999999999</v>
+        <v>9.6448</v>
       </c>
       <c r="E1023" t="s">
         <v>27</v>
@@ -21029,7 +21029,7 @@
         <v>2021</v>
       </c>
       <c r="D1024">
-        <v>5.1458</v>
+        <v>6.6448</v>
       </c>
       <c r="E1024" t="s">
         <v>28</v>
@@ -21049,7 +21049,7 @@
         <v>2021</v>
       </c>
       <c r="D1025">
-        <v>-1.0047</v>
+        <v>-1.2268</v>
       </c>
       <c r="E1025" t="s">
         <v>29</v>
@@ -21069,7 +21069,7 @@
         <v>2021</v>
       </c>
       <c r="D1026">
-        <v>5.2336</v>
+        <v>6.7534</v>
       </c>
       <c r="E1026" t="s">
         <v>30</v>
@@ -21089,7 +21089,7 @@
         <v>2021</v>
       </c>
       <c r="D1027">
-        <v>0.0391</v>
+        <v>0.0453</v>
       </c>
       <c r="E1027" t="s">
         <v>31</v>
@@ -21109,7 +21109,7 @@
         <v>2021</v>
       </c>
       <c r="D1028">
-        <v>0.0291</v>
+        <v>0.0325</v>
       </c>
       <c r="E1028" t="s">
         <v>32</v>
@@ -21129,7 +21129,7 @@
         <v>2021</v>
       </c>
       <c r="D1029">
-        <v>0.0414</v>
+        <v>0.0492</v>
       </c>
       <c r="E1029" t="s">
         <v>33</v>
@@ -21149,7 +21149,7 @@
         <v>2021</v>
       </c>
       <c r="D1030">
-        <v>0.0386</v>
+        <v>0.0441</v>
       </c>
       <c r="E1030" t="s">
         <v>34</v>
@@ -21169,7 +21169,7 @@
         <v>2021</v>
       </c>
       <c r="D1031">
-        <v>0.0386</v>
+        <v>0.0441</v>
       </c>
       <c r="E1031" t="s">
         <v>35</v>
@@ -21189,7 +21189,7 @@
         <v>2021</v>
       </c>
       <c r="D1032">
-        <v>0.0386</v>
+        <v>0.0441</v>
       </c>
       <c r="E1032" t="s">
         <v>36</v>
@@ -21209,7 +21209,7 @@
         <v>2021</v>
       </c>
       <c r="D1033">
-        <v>0.7044</v>
+        <v>0.7609</v>
       </c>
       <c r="E1033" t="s">
         <v>37</v>
@@ -21229,7 +21229,7 @@
         <v>2021</v>
       </c>
       <c r="D1034">
-        <v>-0.079</v>
+        <v>-0.0862</v>
       </c>
       <c r="E1034" t="s">
         <v>38</v>
@@ -21249,7 +21249,7 @@
         <v>2021</v>
       </c>
       <c r="D1035">
-        <v>-0.1241</v>
+        <v>-0.1421</v>
       </c>
       <c r="E1035" t="s">
         <v>39</v>
@@ -21269,7 +21269,7 @@
         <v>2021</v>
       </c>
       <c r="D1036">
-        <v>-0.09130000000000001</v>
+        <v>-0.1044</v>
       </c>
       <c r="E1036" t="s">
         <v>40</v>
@@ -21289,7 +21289,7 @@
         <v>2021</v>
       </c>
       <c r="D1037">
-        <v>-0.1788</v>
+        <v>-0.2243</v>
       </c>
       <c r="E1037" t="s">
         <v>41</v>
@@ -21309,7 +21309,7 @@
         <v>2021</v>
       </c>
       <c r="D1038">
-        <v>0.0386</v>
+        <v>0.0441</v>
       </c>
       <c r="E1038" t="s">
         <v>42</v>
@@ -21329,7 +21329,7 @@
         <v>2021</v>
       </c>
       <c r="D1039">
-        <v>0.6123</v>
+        <v>0.7005</v>
       </c>
       <c r="E1039" t="s">
         <v>43</v>
@@ -21349,7 +21349,7 @@
         <v>2021</v>
       </c>
       <c r="D1040">
-        <v>0.018</v>
+        <v>0.0198</v>
       </c>
       <c r="E1040" t="s">
         <v>44</v>
@@ -21369,7 +21369,7 @@
         <v>2021</v>
       </c>
       <c r="D1041">
-        <v>1.0639</v>
+        <v>1.129</v>
       </c>
       <c r="E1041" t="s">
         <v>45</v>
@@ -21389,7 +21389,7 @@
         <v>2021</v>
       </c>
       <c r="D1042">
-        <v>0.0298</v>
+        <v>0.0579</v>
       </c>
       <c r="E1042" t="s">
         <v>46</v>
@@ -21409,7 +21409,7 @@
         <v>2021</v>
       </c>
       <c r="D1043">
-        <v>0.0192</v>
+        <v>0.0224</v>
       </c>
       <c r="E1043" t="s">
         <v>47</v>
@@ -21429,7 +21429,7 @@
         <v>2021</v>
       </c>
       <c r="D1044">
-        <v>0.6097</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="E1044" t="s">
         <v>48</v>
@@ -21449,7 +21449,7 @@
         <v>2021</v>
       </c>
       <c r="D1045">
-        <v>0.0639</v>
+        <v>0.129</v>
       </c>
       <c r="E1045" t="s">
         <v>49</v>
@@ -23789,7 +23789,7 @@
         <v>2022</v>
       </c>
       <c r="D1162">
-        <v>-0.563689592897607</v>
+        <v>-0.59718226696697</v>
       </c>
       <c r="E1162" t="s">
         <v>21</v>
@@ -23809,7 +23809,7 @@
         <v>2022</v>
       </c>
       <c r="D1163">
-        <v>-0.4972</v>
+        <v>-0.5294</v>
       </c>
       <c r="E1163" t="s">
         <v>22</v>
@@ -23829,7 +23829,7 @@
         <v>2022</v>
       </c>
       <c r="D1164">
-        <v>0.6058</v>
+        <v>0.6183999999999999</v>
       </c>
       <c r="E1164" t="s">
         <v>23</v>
@@ -23849,7 +23849,7 @@
         <v>2022</v>
       </c>
       <c r="D1165">
-        <v>-0.872</v>
+        <v>-0.9056999999999999</v>
       </c>
       <c r="E1165" t="s">
         <v>51</v>
@@ -23869,7 +23869,7 @@
         <v>2022</v>
       </c>
       <c r="D1166">
-        <v>0.0382</v>
+        <v>0.039</v>
       </c>
       <c r="E1166" t="s">
         <v>25</v>
@@ -23889,7 +23889,7 @@
         <v>2022</v>
       </c>
       <c r="D1167">
-        <v>-0.7904</v>
+        <v>-0.7602</v>
       </c>
       <c r="E1167" t="s">
         <v>26</v>
@@ -23909,7 +23909,7 @@
         <v>2022</v>
       </c>
       <c r="D1168">
-        <v>5.8575</v>
+        <v>5.6777</v>
       </c>
       <c r="E1168" t="s">
         <v>27</v>
@@ -23929,7 +23929,7 @@
         <v>2022</v>
       </c>
       <c r="D1169">
-        <v>2.8575</v>
+        <v>2.6777</v>
       </c>
       <c r="E1169" t="s">
         <v>28</v>
@@ -23949,7 +23949,7 @@
         <v>2022</v>
       </c>
       <c r="D1170">
-        <v>-0.7983</v>
+        <v>-0.7678</v>
       </c>
       <c r="E1170" t="s">
         <v>29</v>
@@ -23969,7 +23969,7 @@
         <v>2022</v>
       </c>
       <c r="D1171">
-        <v>2.9251</v>
+        <v>2.7422</v>
       </c>
       <c r="E1171" t="s">
         <v>30</v>
@@ -23989,7 +23989,7 @@
         <v>2022</v>
       </c>
       <c r="D1172">
-        <v>0.0291</v>
+        <v>0.0297</v>
       </c>
       <c r="E1172" t="s">
         <v>31</v>
@@ -24009,7 +24009,7 @@
         <v>2022</v>
       </c>
       <c r="D1173">
-        <v>0.0211</v>
+        <v>0.0218</v>
       </c>
       <c r="E1173" t="s">
         <v>32</v>
@@ -24029,7 +24029,7 @@
         <v>2022</v>
       </c>
       <c r="D1174">
-        <v>0.0307</v>
+        <v>0.0313</v>
       </c>
       <c r="E1174" t="s">
         <v>33</v>
@@ -24049,7 +24049,7 @@
         <v>2022</v>
       </c>
       <c r="D1175">
-        <v>0.0301</v>
+        <v>0.0308</v>
       </c>
       <c r="E1175" t="s">
         <v>34</v>
@@ -24069,7 +24069,7 @@
         <v>2022</v>
       </c>
       <c r="D1176">
-        <v>0.0301</v>
+        <v>0.0308</v>
       </c>
       <c r="E1176" t="s">
         <v>35</v>
@@ -24089,7 +24089,7 @@
         <v>2022</v>
       </c>
       <c r="D1177">
-        <v>0.0301</v>
+        <v>0.0308</v>
       </c>
       <c r="E1177" t="s">
         <v>36</v>
@@ -24109,7 +24109,7 @@
         <v>2022</v>
       </c>
       <c r="D1178">
-        <v>0.667</v>
+        <v>0.6857</v>
       </c>
       <c r="E1178" t="s">
         <v>37</v>
@@ -24129,7 +24129,7 @@
         <v>2022</v>
       </c>
       <c r="D1179">
-        <v>-0.0672</v>
+        <v>-0.0697</v>
       </c>
       <c r="E1179" t="s">
         <v>38</v>
@@ -24149,7 +24149,7 @@
         <v>2022</v>
       </c>
       <c r="D1180">
-        <v>-0.099</v>
+        <v>-0.1015</v>
       </c>
       <c r="E1180" t="s">
         <v>39</v>
@@ -24169,7 +24169,7 @@
         <v>2022</v>
       </c>
       <c r="D1181">
-        <v>-0.0706</v>
+        <v>-0.0721</v>
       </c>
       <c r="E1181" t="s">
         <v>40</v>
@@ -24189,7 +24189,7 @@
         <v>2022</v>
       </c>
       <c r="D1182">
-        <v>-0.1152</v>
+        <v>-0.1159</v>
       </c>
       <c r="E1182" t="s">
         <v>41</v>
@@ -24209,7 +24209,7 @@
         <v>2022</v>
       </c>
       <c r="D1183">
-        <v>0.0301</v>
+        <v>0.0308</v>
       </c>
       <c r="E1183" t="s">
         <v>42</v>
@@ -24229,7 +24229,7 @@
         <v>2022</v>
       </c>
       <c r="D1184">
-        <v>0.4778</v>
+        <v>0.4884</v>
       </c>
       <c r="E1184" t="s">
         <v>43</v>
@@ -24249,7 +24249,7 @@
         <v>2022</v>
       </c>
       <c r="D1185">
-        <v>0.0148</v>
+        <v>0.0152</v>
       </c>
       <c r="E1185" t="s">
         <v>44</v>
@@ -24269,7 +24269,7 @@
         <v>2022</v>
       </c>
       <c r="D1186">
-        <v>0.8662</v>
+        <v>0.8541</v>
       </c>
       <c r="E1186" t="s">
         <v>45</v>
@@ -24289,7 +24289,7 @@
         <v>2022</v>
       </c>
       <c r="D1187">
-        <v>-0.0658</v>
+        <v>-0.0718</v>
       </c>
       <c r="E1187" t="s">
         <v>46</v>
@@ -24309,7 +24309,7 @@
         <v>2022</v>
       </c>
       <c r="D1188">
-        <v>0.0128</v>
+        <v>0.0129</v>
       </c>
       <c r="E1188" t="s">
         <v>47</v>
@@ -24329,7 +24329,7 @@
         <v>2022</v>
       </c>
       <c r="D1189">
-        <v>0.5905</v>
+        <v>0.5889</v>
       </c>
       <c r="E1189" t="s">
         <v>48</v>
@@ -24349,7 +24349,7 @@
         <v>2022</v>
       </c>
       <c r="D1190">
-        <v>-0.1338</v>
+        <v>-0.1459</v>
       </c>
       <c r="E1190" t="s">
         <v>49</v>
@@ -24369,7 +24369,7 @@
         <v>2022</v>
       </c>
       <c r="D1191">
-        <v>-0.6479992591331309</v>
+        <v>-0.66512055226788</v>
       </c>
       <c r="E1191" t="s">
         <v>21</v>
@@ -24389,7 +24389,7 @@
         <v>2022</v>
       </c>
       <c r="D1192">
-        <v>-0.5792</v>
+        <v>-0.5962</v>
       </c>
       <c r="E1192" t="s">
         <v>22</v>
@@ -24409,7 +24409,7 @@
         <v>2022</v>
       </c>
       <c r="D1193">
-        <v>0.5427999999999999</v>
+        <v>0.5589</v>
       </c>
       <c r="E1193" t="s">
         <v>23</v>
@@ -24429,7 +24429,7 @@
         <v>2022</v>
       </c>
       <c r="D1194">
-        <v>-1.1077</v>
+        <v>-1.108</v>
       </c>
       <c r="E1194" t="s">
         <v>51</v>
@@ -24449,7 +24449,7 @@
         <v>2022</v>
       </c>
       <c r="D1195">
-        <v>0.0342</v>
+        <v>0.0352</v>
       </c>
       <c r="E1195" t="s">
         <v>25</v>
@@ -24469,7 +24469,7 @@
         <v>2022</v>
       </c>
       <c r="D1196">
-        <v>-0.4661</v>
+        <v>-0.5453</v>
       </c>
       <c r="E1196" t="s">
         <v>26</v>
@@ -24489,7 +24489,7 @@
         <v>2022</v>
       </c>
       <c r="D1197">
-        <v>6.704</v>
+        <v>5.9425</v>
       </c>
       <c r="E1197" t="s">
         <v>27</v>
@@ -24509,7 +24509,7 @@
         <v>2022</v>
       </c>
       <c r="D1198">
-        <v>3.704</v>
+        <v>2.9425</v>
       </c>
       <c r="E1198" t="s">
         <v>28</v>
@@ -24529,7 +24529,7 @@
         <v>2022</v>
       </c>
       <c r="D1199">
-        <v>-0.4708</v>
+        <v>-0.5507</v>
       </c>
       <c r="E1199" t="s">
         <v>29</v>
@@ -24549,7 +24549,7 @@
         <v>2022</v>
       </c>
       <c r="D1200">
-        <v>3.7857</v>
+        <v>3.0115</v>
       </c>
       <c r="E1200" t="s">
         <v>30</v>
@@ -24569,7 +24569,7 @@
         <v>2022</v>
       </c>
       <c r="D1201">
-        <v>0.0254</v>
+        <v>0.0264</v>
       </c>
       <c r="E1201" t="s">
         <v>31</v>
@@ -24589,7 +24589,7 @@
         <v>2022</v>
       </c>
       <c r="D1202">
-        <v>0.0221</v>
+        <v>0.0216</v>
       </c>
       <c r="E1202" t="s">
         <v>32</v>
@@ -24609,7 +24609,7 @@
         <v>2022</v>
       </c>
       <c r="D1203">
-        <v>0.0269</v>
+        <v>0.028</v>
       </c>
       <c r="E1203" t="s">
         <v>33</v>
@@ -24629,7 +24629,7 @@
         <v>2022</v>
       </c>
       <c r="D1204">
-        <v>0.0267</v>
+        <v>0.0278</v>
       </c>
       <c r="E1204" t="s">
         <v>34</v>
@@ -24649,7 +24649,7 @@
         <v>2022</v>
       </c>
       <c r="D1205">
-        <v>0.0267</v>
+        <v>0.0278</v>
       </c>
       <c r="E1205" t="s">
         <v>35</v>
@@ -24669,7 +24669,7 @@
         <v>2022</v>
       </c>
       <c r="D1206">
-        <v>0.0267</v>
+        <v>0.0278</v>
       </c>
       <c r="E1206" t="s">
         <v>36</v>
@@ -24689,7 +24689,7 @@
         <v>2022</v>
       </c>
       <c r="D1207">
-        <v>0.6889</v>
+        <v>0.7116</v>
       </c>
       <c r="E1207" t="s">
         <v>37</v>
@@ -24709,7 +24709,7 @@
         <v>2022</v>
       </c>
       <c r="D1208">
-        <v>-0.0601</v>
+        <v>-0.0644</v>
       </c>
       <c r="E1208" t="s">
         <v>38</v>
@@ -24729,7 +24729,7 @@
         <v>2022</v>
       </c>
       <c r="D1209">
-        <v>-0.0891</v>
+        <v>-0.0917</v>
       </c>
       <c r="E1209" t="s">
         <v>39</v>
@@ -24749,7 +24749,7 @@
         <v>2022</v>
       </c>
       <c r="D1210">
-        <v>-0.0608</v>
+        <v>-0.0639</v>
       </c>
       <c r="E1210" t="s">
         <v>40</v>
@@ -24769,7 +24769,7 @@
         <v>2022</v>
       </c>
       <c r="D1211">
-        <v>-0.1029</v>
+        <v>-0.1041</v>
       </c>
       <c r="E1211" t="s">
         <v>41</v>
@@ -24789,7 +24789,7 @@
         <v>2022</v>
       </c>
       <c r="D1212">
-        <v>0.0267</v>
+        <v>0.0278</v>
       </c>
       <c r="E1212" t="s">
         <v>42</v>
@@ -24809,7 +24809,7 @@
         <v>2022</v>
       </c>
       <c r="D1213">
-        <v>0.4242</v>
+        <v>0.4418</v>
       </c>
       <c r="E1213" t="s">
         <v>43</v>
@@ -24829,7 +24829,7 @@
         <v>2022</v>
       </c>
       <c r="D1214">
-        <v>0.0133</v>
+        <v>0.0139</v>
       </c>
       <c r="E1214" t="s">
         <v>44</v>
@@ -24849,7 +24849,7 @@
         <v>2022</v>
       </c>
       <c r="D1215">
-        <v>0.7863</v>
+        <v>0.7865</v>
       </c>
       <c r="E1215" t="s">
         <v>45</v>
@@ -24869,7 +24869,7 @@
         <v>2022</v>
       </c>
       <c r="D1216">
-        <v>-0.1061</v>
+        <v>-0.1065</v>
       </c>
       <c r="E1216" t="s">
         <v>46</v>
@@ -24889,7 +24889,7 @@
         <v>2022</v>
       </c>
       <c r="D1217">
-        <v>0.0104</v>
+        <v>0.0109</v>
       </c>
       <c r="E1217" t="s">
         <v>47</v>
@@ -24909,7 +24909,7 @@
         <v>2022</v>
       </c>
       <c r="D1218">
-        <v>0.592</v>
+        <v>0.5946</v>
       </c>
       <c r="E1218" t="s">
         <v>48</v>
@@ -24929,7 +24929,7 @@
         <v>2022</v>
       </c>
       <c r="D1219">
-        <v>-0.2137</v>
+        <v>-0.2135</v>
       </c>
       <c r="E1219" t="s">
         <v>49</v>
@@ -24949,7 +24949,7 @@
         <v>2022</v>
       </c>
       <c r="D1220">
-        <v>-0.61744034892885</v>
+        <v>-0.611548630724856</v>
       </c>
       <c r="E1220" t="s">
         <v>21</v>
@@ -24969,7 +24969,7 @@
         <v>2022</v>
       </c>
       <c r="D1221">
-        <v>-0.5491</v>
+        <v>-0.5434</v>
       </c>
       <c r="E1221" t="s">
         <v>22</v>
@@ -24989,7 +24989,7 @@
         <v>2022</v>
       </c>
       <c r="D1222">
-        <v>0.6405</v>
+        <v>0.6187</v>
       </c>
       <c r="E1222" t="s">
         <v>23</v>
@@ -25009,7 +25009,7 @@
         <v>2022</v>
       </c>
       <c r="D1223">
-        <v>-0.9015</v>
+        <v>-0.9264</v>
       </c>
       <c r="E1223" t="s">
         <v>51</v>
@@ -25029,7 +25029,7 @@
         <v>2022</v>
       </c>
       <c r="D1224">
-        <v>0.0403</v>
+        <v>0.039</v>
       </c>
       <c r="E1224" t="s">
         <v>25</v>
@@ -25049,7 +25049,7 @@
         <v>2022</v>
       </c>
       <c r="D1225">
-        <v>-0.5406</v>
+        <v>-0.6982</v>
       </c>
       <c r="E1225" t="s">
         <v>26</v>
@@ -25069,7 +25069,7 @@
         <v>2022</v>
       </c>
       <c r="D1226">
-        <v>5.0611</v>
+        <v>5.3149</v>
       </c>
       <c r="E1226" t="s">
         <v>27</v>
@@ -25089,7 +25089,7 @@
         <v>2022</v>
       </c>
       <c r="D1227">
-        <v>2.0611</v>
+        <v>2.3149</v>
       </c>
       <c r="E1227" t="s">
         <v>28</v>
@@ -25109,7 +25109,7 @@
         <v>2022</v>
       </c>
       <c r="D1228">
-        <v>-0.546</v>
+        <v>-0.7052</v>
       </c>
       <c r="E1228" t="s">
         <v>29</v>
@@ -25129,7 +25129,7 @@
         <v>2022</v>
       </c>
       <c r="D1229">
-        <v>2.1154</v>
+        <v>2.3734</v>
       </c>
       <c r="E1229" t="s">
         <v>30</v>
@@ -25149,7 +25149,7 @@
         <v>2022</v>
       </c>
       <c r="D1230">
-        <v>0.0302</v>
+        <v>0.0296</v>
       </c>
       <c r="E1230" t="s">
         <v>31</v>
@@ -25169,7 +25169,7 @@
         <v>2022</v>
       </c>
       <c r="D1231">
-        <v>0.0236</v>
+        <v>0.0216</v>
       </c>
       <c r="E1231" t="s">
         <v>32</v>
@@ -25189,7 +25189,7 @@
         <v>2022</v>
       </c>
       <c r="D1232">
-        <v>0.031</v>
+        <v>0.0307</v>
       </c>
       <c r="E1232" t="s">
         <v>33</v>
@@ -25209,7 +25209,7 @@
         <v>2022</v>
       </c>
       <c r="D1233">
-        <v>0.0313</v>
+        <v>0.0307</v>
       </c>
       <c r="E1233" t="s">
         <v>34</v>
@@ -25229,7 +25229,7 @@
         <v>2022</v>
       </c>
       <c r="D1234">
-        <v>0.0313</v>
+        <v>0.0307</v>
       </c>
       <c r="E1234" t="s">
         <v>35</v>
@@ -25249,7 +25249,7 @@
         <v>2022</v>
       </c>
       <c r="D1235">
-        <v>0.0313</v>
+        <v>0.0307</v>
       </c>
       <c r="E1235" t="s">
         <v>36</v>
@@ -25269,7 +25269,7 @@
         <v>2022</v>
       </c>
       <c r="D1236">
-        <v>0.7488</v>
+        <v>0.7223000000000001</v>
       </c>
       <c r="E1236" t="s">
         <v>37</v>
@@ -25289,7 +25289,7 @@
         <v>2022</v>
       </c>
       <c r="D1237">
-        <v>-0.0713</v>
+        <v>-0.0722</v>
       </c>
       <c r="E1237" t="s">
         <v>38</v>
@@ -25309,7 +25309,7 @@
         <v>2022</v>
       </c>
       <c r="D1238">
-        <v>-0.1016</v>
+        <v>-0.1</v>
       </c>
       <c r="E1238" t="s">
         <v>39</v>
@@ -25329,7 +25329,7 @@
         <v>2022</v>
       </c>
       <c r="D1239">
-        <v>-0.07290000000000001</v>
+        <v>-0.07190000000000001</v>
       </c>
       <c r="E1239" t="s">
         <v>40</v>
@@ -25349,7 +25349,7 @@
         <v>2022</v>
       </c>
       <c r="D1240">
-        <v>-0.1117</v>
+        <v>-0.1123</v>
       </c>
       <c r="E1240" t="s">
         <v>41</v>
@@ -25369,7 +25369,7 @@
         <v>2022</v>
       </c>
       <c r="D1241">
-        <v>0.0313</v>
+        <v>0.0307</v>
       </c>
       <c r="E1241" t="s">
         <v>42</v>
@@ -25389,7 +25389,7 @@
         <v>2022</v>
       </c>
       <c r="D1242">
-        <v>0.4975</v>
+        <v>0.4877</v>
       </c>
       <c r="E1242" t="s">
         <v>43</v>
@@ -25409,7 +25409,7 @@
         <v>2022</v>
       </c>
       <c r="D1243">
-        <v>0.0159</v>
+        <v>0.0154</v>
       </c>
       <c r="E1243" t="s">
         <v>44</v>
@@ -25429,7 +25429,7 @@
         <v>2022</v>
       </c>
       <c r="D1244">
-        <v>0.8536</v>
+        <v>0.8487</v>
       </c>
       <c r="E1244" t="s">
         <v>45</v>
@@ -25449,7 +25449,7 @@
         <v>2022</v>
       </c>
       <c r="D1245">
-        <v>-0.0743</v>
+        <v>-0.07580000000000001</v>
       </c>
       <c r="E1245" t="s">
         <v>46</v>
@@ -25469,7 +25469,7 @@
         <v>2022</v>
       </c>
       <c r="D1246">
-        <v>0.0136</v>
+        <v>0.0131</v>
       </c>
       <c r="E1246" t="s">
         <v>47</v>
@@ -25489,7 +25489,7 @@
         <v>2022</v>
       </c>
       <c r="D1247">
-        <v>0.6186</v>
+        <v>0.6259</v>
       </c>
       <c r="E1247" t="s">
         <v>48</v>
@@ -25509,7 +25509,7 @@
         <v>2022</v>
       </c>
       <c r="D1248">
-        <v>-0.1464</v>
+        <v>-0.1513</v>
       </c>
       <c r="E1248" t="s">
         <v>49</v>
@@ -25529,7 +25529,7 @@
         <v>2022</v>
       </c>
       <c r="D1249">
-        <v>-0.723645529343347</v>
+        <v>-0.715965145009809</v>
       </c>
       <c r="E1249" t="s">
         <v>21</v>
@@ -25549,7 +25549,7 @@
         <v>2022</v>
       </c>
       <c r="D1250">
-        <v>-0.6556</v>
+        <v>-0.6477000000000001</v>
       </c>
       <c r="E1250" t="s">
         <v>22</v>
@@ -25569,7 +25569,7 @@
         <v>2022</v>
       </c>
       <c r="D1251">
-        <v>0.7015</v>
+        <v>0.673</v>
       </c>
       <c r="E1251" t="s">
         <v>23</v>
@@ -25589,7 +25589,7 @@
         <v>2022</v>
       </c>
       <c r="D1252">
-        <v>-0.9645</v>
+        <v>-0.9948</v>
       </c>
       <c r="E1252" t="s">
         <v>51</v>
@@ -25609,7 +25609,7 @@
         <v>2022</v>
       </c>
       <c r="D1253">
-        <v>0.0442</v>
+        <v>0.0424</v>
       </c>
       <c r="E1253" t="s">
         <v>25</v>
@@ -25629,7 +25629,7 @@
         <v>2022</v>
       </c>
       <c r="D1254">
-        <v>-0.8534</v>
+        <v>-0.8996</v>
       </c>
       <c r="E1254" t="s">
         <v>26</v>
@@ -25649,7 +25649,7 @@
         <v>2022</v>
       </c>
       <c r="D1255">
-        <v>8.201599999999999</v>
+        <v>7.3501</v>
       </c>
       <c r="E1255" t="s">
         <v>27</v>
@@ -25669,7 +25669,7 @@
         <v>2022</v>
       </c>
       <c r="D1256">
-        <v>5.2016</v>
+        <v>4.3501</v>
       </c>
       <c r="E1256" t="s">
         <v>28</v>
@@ -25689,7 +25689,7 @@
         <v>2022</v>
       </c>
       <c r="D1257">
-        <v>-0.8619</v>
+        <v>-0.9086</v>
       </c>
       <c r="E1257" t="s">
         <v>29</v>
@@ -25709,7 +25709,7 @@
         <v>2022</v>
       </c>
       <c r="D1258">
-        <v>5.3081</v>
+        <v>4.4425</v>
       </c>
       <c r="E1258" t="s">
         <v>30</v>
@@ -25729,7 +25729,7 @@
         <v>2022</v>
       </c>
       <c r="D1259">
-        <v>0.0336</v>
+        <v>0.0324</v>
       </c>
       <c r="E1259" t="s">
         <v>31</v>
@@ -25749,7 +25749,7 @@
         <v>2022</v>
       </c>
       <c r="D1260">
-        <v>0.0259</v>
+        <v>0.0238</v>
       </c>
       <c r="E1260" t="s">
         <v>32</v>
@@ -25769,7 +25769,7 @@
         <v>2022</v>
       </c>
       <c r="D1261">
-        <v>0.0359</v>
+        <v>0.0345</v>
       </c>
       <c r="E1261" t="s">
         <v>33</v>
@@ -25789,7 +25789,7 @@
         <v>2022</v>
       </c>
       <c r="D1262">
-        <v>0.0351</v>
+        <v>0.034</v>
       </c>
       <c r="E1262" t="s">
         <v>34</v>
@@ -25809,7 +25809,7 @@
         <v>2022</v>
       </c>
       <c r="D1263">
-        <v>0.0351</v>
+        <v>0.034</v>
       </c>
       <c r="E1263" t="s">
         <v>35</v>
@@ -25829,7 +25829,7 @@
         <v>2022</v>
       </c>
       <c r="D1264">
-        <v>0.0351</v>
+        <v>0.034</v>
       </c>
       <c r="E1264" t="s">
         <v>36</v>
@@ -25849,7 +25849,7 @@
         <v>2022</v>
       </c>
       <c r="D1265">
-        <v>0.803</v>
+        <v>0.7883</v>
       </c>
       <c r="E1265" t="s">
         <v>37</v>
@@ -25869,7 +25869,7 @@
         <v>2022</v>
       </c>
       <c r="D1266">
-        <v>-0.07389999999999999</v>
+        <v>-0.0704</v>
       </c>
       <c r="E1266" t="s">
         <v>38</v>
@@ -25889,7 +25889,7 @@
         <v>2022</v>
       </c>
       <c r="D1267">
-        <v>-0.1121</v>
+        <v>-0.108</v>
       </c>
       <c r="E1267" t="s">
         <v>39</v>
@@ -25909,7 +25909,7 @@
         <v>2022</v>
       </c>
       <c r="D1268">
-        <v>-0.08119999999999999</v>
+        <v>-0.0793</v>
       </c>
       <c r="E1268" t="s">
         <v>40</v>
@@ -25929,7 +25929,7 @@
         <v>2022</v>
       </c>
       <c r="D1269">
-        <v>-0.1556</v>
+        <v>-0.1438</v>
       </c>
       <c r="E1269" t="s">
         <v>41</v>
@@ -25949,7 +25949,7 @@
         <v>2022</v>
       </c>
       <c r="D1270">
-        <v>0.0351</v>
+        <v>0.034</v>
       </c>
       <c r="E1270" t="s">
         <v>42</v>
@@ -25969,7 +25969,7 @@
         <v>2022</v>
       </c>
       <c r="D1271">
-        <v>0.5573</v>
+        <v>0.539</v>
       </c>
       <c r="E1271" t="s">
         <v>43</v>
@@ -25989,7 +25989,7 @@
         <v>2022</v>
       </c>
       <c r="D1272">
-        <v>0.0172</v>
+        <v>0.0167</v>
       </c>
       <c r="E1272" t="s">
         <v>44</v>
@@ -26009,7 +26009,7 @@
         <v>2022</v>
       </c>
       <c r="D1273">
-        <v>0.8134</v>
+        <v>0.8086</v>
       </c>
       <c r="E1273" t="s">
         <v>45</v>
@@ -26029,7 +26029,7 @@
         <v>2022</v>
       </c>
       <c r="D1274">
-        <v>-0.0915</v>
+        <v>-0.0944</v>
       </c>
       <c r="E1274" t="s">
         <v>46</v>
@@ -26049,7 +26049,7 @@
         <v>2022</v>
       </c>
       <c r="D1275">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="E1275" t="s">
         <v>47</v>
@@ -26069,7 +26069,7 @@
         <v>2022</v>
       </c>
       <c r="D1276">
-        <v>0.5639</v>
+        <v>0.5695</v>
       </c>
       <c r="E1276" t="s">
         <v>48</v>
@@ -26089,7 +26089,7 @@
         <v>2022</v>
       </c>
       <c r="D1277">
-        <v>-0.1866</v>
+        <v>-0.1914</v>
       </c>
       <c r="E1277" t="s">
         <v>49</v>
@@ -32519,7 +32519,7 @@
         <v>2021</v>
       </c>
       <c r="D205">
-        <v>2.03562588760588</v>
+        <v>1.40378292811414</v>
       </c>
       <c r="E205" t="s">
         <v>21</v>
@@ -32539,7 +32539,7 @@
         <v>2021</v>
       </c>
       <c r="D206">
-        <v>1.1525</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="E206" t="s">
         <v>22</v>
@@ -32559,7 +32559,7 @@
         <v>2021</v>
       </c>
       <c r="D207">
-        <v>1.1706</v>
+        <v>0.9434</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -32579,7 +32579,7 @@
         <v>2021</v>
       </c>
       <c r="D208">
-        <v>0.9584</v>
+        <v>0.8545</v>
       </c>
       <c r="E208" t="s">
         <v>50</v>
@@ -32599,7 +32599,7 @@
         <v>2021</v>
       </c>
       <c r="D209">
-        <v>0.0737</v>
+        <v>0.0594</v>
       </c>
       <c r="E209" t="s">
         <v>25</v>
@@ -32619,7 +32619,7 @@
         <v>2021</v>
       </c>
       <c r="D210">
-        <v>0.0381</v>
+        <v>-1.173</v>
       </c>
       <c r="E210" t="s">
         <v>26</v>
@@ -32639,7 +32639,7 @@
         <v>2021</v>
       </c>
       <c r="D211">
-        <v>10.7692</v>
+        <v>10.2444</v>
       </c>
       <c r="E211" t="s">
         <v>27</v>
@@ -32659,7 +32659,7 @@
         <v>2021</v>
       </c>
       <c r="D212">
-        <v>7.7692</v>
+        <v>7.2444</v>
       </c>
       <c r="E212" t="s">
         <v>28</v>
@@ -32679,7 +32679,7 @@
         <v>2021</v>
       </c>
       <c r="D213">
-        <v>0.0384</v>
+        <v>-1.1827</v>
       </c>
       <c r="E213" t="s">
         <v>29</v>
@@ -32699,7 +32699,7 @@
         <v>2021</v>
       </c>
       <c r="D214">
-        <v>7.8933</v>
+        <v>7.3613</v>
       </c>
       <c r="E214" t="s">
         <v>30</v>
@@ -32719,7 +32719,7 @@
         <v>2021</v>
       </c>
       <c r="D215">
-        <v>0.052</v>
+        <v>0.0456</v>
       </c>
       <c r="E215" t="s">
         <v>31</v>
@@ -32739,7 +32739,7 @@
         <v>2021</v>
       </c>
       <c r="D216">
-        <v>0.0541</v>
+        <v>0.0348</v>
       </c>
       <c r="E216" t="s">
         <v>32</v>
@@ -32759,7 +32759,7 @@
         <v>2021</v>
       </c>
       <c r="D217">
-        <v>0.0546</v>
+        <v>0.0504</v>
       </c>
       <c r="E217" t="s">
         <v>33</v>
@@ -32779,7 +32779,7 @@
         <v>2021</v>
       </c>
       <c r="D218">
-        <v>0.0493</v>
+        <v>0.0437</v>
       </c>
       <c r="E218" t="s">
         <v>34</v>
@@ -32799,7 +32799,7 @@
         <v>2021</v>
       </c>
       <c r="D219">
-        <v>0.0493</v>
+        <v>0.0437</v>
       </c>
       <c r="E219" t="s">
         <v>35</v>
@@ -32819,7 +32819,7 @@
         <v>2021</v>
       </c>
       <c r="D220">
-        <v>0.0493</v>
+        <v>0.0437</v>
       </c>
       <c r="E220" t="s">
         <v>36</v>
@@ -32839,7 +32839,7 @@
         <v>2021</v>
       </c>
       <c r="D221">
-        <v>0.7685</v>
+        <v>0.7382</v>
       </c>
       <c r="E221" t="s">
         <v>37</v>
@@ -32859,7 +32859,7 @@
         <v>2021</v>
       </c>
       <c r="D222">
-        <v>-0.09039999999999999</v>
+        <v>-0.0809</v>
       </c>
       <c r="E222" t="s">
         <v>38</v>
@@ -32879,7 +32879,7 @@
         <v>2021</v>
       </c>
       <c r="D223">
-        <v>-0.1619</v>
+        <v>-0.1413</v>
       </c>
       <c r="E223" t="s">
         <v>39</v>
@@ -32899,7 +32899,7 @@
         <v>2021</v>
       </c>
       <c r="D224">
-        <v>-0.103</v>
+        <v>-0.1029</v>
       </c>
       <c r="E224" t="s">
         <v>40</v>
@@ -32919,7 +32919,7 @@
         <v>2021</v>
       </c>
       <c r="D225">
-        <v>-0.149</v>
+        <v>-0.2315</v>
       </c>
       <c r="E225" t="s">
         <v>41</v>
@@ -32939,7 +32939,7 @@
         <v>2021</v>
       </c>
       <c r="D226">
-        <v>0.0493</v>
+        <v>0.0437</v>
       </c>
       <c r="E226" t="s">
         <v>42</v>
@@ -32959,7 +32959,7 @@
         <v>2021</v>
       </c>
       <c r="D227">
-        <v>0.7827</v>
+        <v>0.6943</v>
       </c>
       <c r="E227" t="s">
         <v>43</v>
@@ -32979,7 +32979,7 @@
         <v>2021</v>
       </c>
       <c r="D228">
-        <v>0.0222</v>
+        <v>0.019</v>
       </c>
       <c r="E228" t="s">
         <v>44</v>
@@ -32999,7 +32999,7 @@
         <v>2021</v>
       </c>
       <c r="D229">
-        <v>1.2619</v>
+        <v>1.2258</v>
       </c>
       <c r="E229" t="s">
         <v>45</v>
@@ -33019,7 +33019,7 @@
         <v>2021</v>
       </c>
       <c r="D230">
-        <v>0.1179</v>
+        <v>0.0979</v>
       </c>
       <c r="E230" t="s">
         <v>46</v>
@@ -33039,7 +33039,7 @@
         <v>2021</v>
       </c>
       <c r="D231">
-        <v>0.028</v>
+        <v>0.0232</v>
       </c>
       <c r="E231" t="s">
         <v>47</v>
@@ -33059,7 +33059,7 @@
         <v>2021</v>
       </c>
       <c r="D232">
-        <v>0.6917</v>
+        <v>0.5829</v>
       </c>
       <c r="E232" t="s">
         <v>48</v>
@@ -33079,7 +33079,7 @@
         <v>2021</v>
       </c>
       <c r="D233">
-        <v>0.2619</v>
+        <v>0.2258</v>
       </c>
       <c r="E233" t="s">
         <v>49</v>
@@ -33099,7 +33099,7 @@
         <v>2022</v>
       </c>
       <c r="D234">
-        <v>-0.6479992591331309</v>
+        <v>-0.679218665047342</v>
       </c>
       <c r="E234" t="s">
         <v>21</v>
@@ -33119,7 +33119,7 @@
         <v>2022</v>
       </c>
       <c r="D235">
-        <v>-0.5792</v>
+        <v>-0.6104000000000001</v>
       </c>
       <c r="E235" t="s">
         <v>22</v>
@@ -33139,7 +33139,7 @@
         <v>2022</v>
       </c>
       <c r="D236">
-        <v>0.5427999999999999</v>
+        <v>0.6179</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -33159,7 +33159,7 @@
         <v>2022</v>
       </c>
       <c r="D237">
-        <v>-1.1077</v>
+        <v>-1.0307</v>
       </c>
       <c r="E237" t="s">
         <v>51</v>
@@ -33179,7 +33179,7 @@
         <v>2022</v>
       </c>
       <c r="D238">
-        <v>0.0342</v>
+        <v>0.0389</v>
       </c>
       <c r="E238" t="s">
         <v>25</v>
@@ -33199,7 +33199,7 @@
         <v>2022</v>
       </c>
       <c r="D239">
-        <v>-0.4661</v>
+        <v>-0.8165</v>
       </c>
       <c r="E239" t="s">
         <v>26</v>
@@ -33219,7 +33219,7 @@
         <v>2022</v>
       </c>
       <c r="D240">
-        <v>6.704</v>
+        <v>5.5122</v>
       </c>
       <c r="E240" t="s">
         <v>27</v>
@@ -33239,7 +33239,7 @@
         <v>2022</v>
       </c>
       <c r="D241">
-        <v>3.704</v>
+        <v>2.5122</v>
       </c>
       <c r="E241" t="s">
         <v>28</v>
@@ -33259,7 +33259,7 @@
         <v>2022</v>
       </c>
       <c r="D242">
-        <v>-0.4708</v>
+        <v>-0.8246</v>
       </c>
       <c r="E242" t="s">
         <v>29</v>
@@ -33279,7 +33279,7 @@
         <v>2022</v>
       </c>
       <c r="D243">
-        <v>3.7857</v>
+        <v>2.5741</v>
       </c>
       <c r="E243" t="s">
         <v>30</v>
@@ -33299,7 +33299,7 @@
         <v>2022</v>
       </c>
       <c r="D244">
-        <v>0.0254</v>
+        <v>0.03</v>
       </c>
       <c r="E244" t="s">
         <v>31</v>
@@ -33319,7 +33319,7 @@
         <v>2022</v>
       </c>
       <c r="D245">
-        <v>0.0221</v>
+        <v>0.021</v>
       </c>
       <c r="E245" t="s">
         <v>32</v>
@@ -33339,7 +33339,7 @@
         <v>2022</v>
       </c>
       <c r="D246">
-        <v>0.0269</v>
+        <v>0.0318</v>
       </c>
       <c r="E246" t="s">
         <v>33</v>
@@ -33359,7 +33359,7 @@
         <v>2022</v>
       </c>
       <c r="D247">
-        <v>0.0267</v>
+        <v>0.0314</v>
       </c>
       <c r="E247" t="s">
         <v>34</v>
@@ -33379,7 +33379,7 @@
         <v>2022</v>
       </c>
       <c r="D248">
-        <v>0.0267</v>
+        <v>0.0314</v>
       </c>
       <c r="E248" t="s">
         <v>35</v>
@@ -33399,7 +33399,7 @@
         <v>2022</v>
       </c>
       <c r="D249">
-        <v>0.0267</v>
+        <v>0.0314</v>
       </c>
       <c r="E249" t="s">
         <v>36</v>
@@ -33419,7 +33419,7 @@
         <v>2022</v>
       </c>
       <c r="D250">
-        <v>0.6889</v>
+        <v>0.7286</v>
       </c>
       <c r="E250" t="s">
         <v>37</v>
@@ -33439,7 +33439,7 @@
         <v>2022</v>
       </c>
       <c r="D251">
-        <v>-0.0601</v>
+        <v>-0.07290000000000001</v>
       </c>
       <c r="E251" t="s">
         <v>38</v>
@@ -33459,7 +33459,7 @@
         <v>2022</v>
       </c>
       <c r="D252">
-        <v>-0.0891</v>
+        <v>-0.1022</v>
       </c>
       <c r="E252" t="s">
         <v>39</v>
@@ -33479,7 +33479,7 @@
         <v>2022</v>
       </c>
       <c r="D253">
-        <v>-0.0608</v>
+        <v>-0.07340000000000001</v>
       </c>
       <c r="E253" t="s">
         <v>40</v>
@@ -33499,7 +33499,7 @@
         <v>2022</v>
       </c>
       <c r="D254">
-        <v>-0.1029</v>
+        <v>-0.1156</v>
       </c>
       <c r="E254" t="s">
         <v>41</v>
@@ -33519,7 +33519,7 @@
         <v>2022</v>
       </c>
       <c r="D255">
-        <v>0.0267</v>
+        <v>0.0314</v>
       </c>
       <c r="E255" t="s">
         <v>42</v>
@@ -33539,7 +33539,7 @@
         <v>2022</v>
       </c>
       <c r="D256">
-        <v>0.4242</v>
+        <v>0.4983</v>
       </c>
       <c r="E256" t="s">
         <v>43</v>
@@ -33559,7 +33559,7 @@
         <v>2022</v>
       </c>
       <c r="D257">
-        <v>0.0133</v>
+        <v>0.0156</v>
       </c>
       <c r="E257" t="s">
         <v>44</v>
@@ -33579,7 +33579,7 @@
         <v>2022</v>
       </c>
       <c r="D258">
-        <v>0.7863</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E258" t="s">
         <v>45</v>
@@ -33599,7 +33599,7 @@
         <v>2022</v>
       </c>
       <c r="D259">
-        <v>-0.1061</v>
+        <v>-0.09420000000000001</v>
       </c>
       <c r="E259" t="s">
         <v>46</v>
@@ -33619,7 +33619,7 @@
         <v>2022</v>
       </c>
       <c r="D260">
-        <v>0.0104</v>
+        <v>0.0126</v>
       </c>
       <c r="E260" t="s">
         <v>47</v>
@@ -33639,7 +33639,7 @@
         <v>2022</v>
       </c>
       <c r="D261">
-        <v>0.592</v>
+        <v>0.5355</v>
       </c>
       <c r="E261" t="s">
         <v>48</v>
@@ -33659,7 +33659,7 @@
         <v>2022</v>
       </c>
       <c r="D262">
-        <v>-0.2137</v>
+        <v>-0.19</v>
       </c>
       <c r="E262" t="s">
         <v>49</v>
@@ -33679,7 +33679,7 @@
         <v>2020</v>
       </c>
       <c r="D263">
-        <v>1.1787814668323</v>
+        <v>0.548975552347828</v>
       </c>
       <c r="E263" t="s">
         <v>21</v>
@@ -33699,7 +33699,7 @@
         <v>2020</v>
       </c>
       <c r="D264">
-        <v>0.7095</v>
+        <v>0.3516</v>
       </c>
       <c r="E264" t="s">
         <v>22</v>
@@ -33719,7 +33719,7 @@
         <v>2020</v>
       </c>
       <c r="D265">
-        <v>1.0416</v>
+        <v>0.7506</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -33739,7 +33739,7 @@
         <v>2020</v>
       </c>
       <c r="D266">
-        <v>0.6666</v>
+        <v>0.4525</v>
       </c>
       <c r="E266" t="s">
         <v>24</v>
@@ -33759,7 +33759,7 @@
         <v>2020</v>
       </c>
       <c r="D267">
-        <v>0.06560000000000001</v>
+        <v>0.0473</v>
       </c>
       <c r="E267" t="s">
         <v>25</v>
@@ -33779,7 +33779,7 @@
         <v>2020</v>
       </c>
       <c r="D268">
-        <v>-2.0043</v>
+        <v>-3.1298</v>
       </c>
       <c r="E268" t="s">
         <v>26</v>
@@ -33799,7 +33799,7 @@
         <v>2020</v>
       </c>
       <c r="D269">
-        <v>24.112</v>
+        <v>32.2322</v>
       </c>
       <c r="E269" t="s">
         <v>27</v>
@@ -33819,7 +33819,7 @@
         <v>2020</v>
       </c>
       <c r="D270">
-        <v>21.112</v>
+        <v>29.2322</v>
       </c>
       <c r="E270" t="s">
         <v>28</v>
@@ -33839,7 +33839,7 @@
         <v>2020</v>
       </c>
       <c r="D271">
-        <v>-2.0209</v>
+        <v>-3.1556</v>
       </c>
       <c r="E271" t="s">
         <v>29</v>
@@ -33859,7 +33859,7 @@
         <v>2020</v>
       </c>
       <c r="D272">
-        <v>21.4199</v>
+        <v>29.6521</v>
       </c>
       <c r="E272" t="s">
         <v>30</v>
@@ -33879,7 +33879,7 @@
         <v>2020</v>
       </c>
       <c r="D273">
-        <v>0.05</v>
+        <v>0.0386</v>
       </c>
       <c r="E273" t="s">
         <v>31</v>
@@ -33899,7 +33899,7 @@
         <v>2020</v>
       </c>
       <c r="D274">
-        <v>0.0421</v>
+        <v>0.0247</v>
       </c>
       <c r="E274" t="s">
         <v>32</v>
@@ -33919,7 +33919,7 @@
         <v>2020</v>
       </c>
       <c r="D275">
-        <v>0.0577</v>
+        <v>0.0478</v>
       </c>
       <c r="E275" t="s">
         <v>33</v>
@@ -33939,7 +33939,7 @@
         <v>2020</v>
       </c>
       <c r="D276">
-        <v>0.0481</v>
+        <v>0.0376</v>
       </c>
       <c r="E276" t="s">
         <v>34</v>
@@ -33959,7 +33959,7 @@
         <v>2020</v>
       </c>
       <c r="D277">
-        <v>0.0481</v>
+        <v>0.0376</v>
       </c>
       <c r="E277" t="s">
         <v>35</v>
@@ -33979,7 +33979,7 @@
         <v>2020</v>
       </c>
       <c r="D278">
-        <v>0.0481</v>
+        <v>0.0376</v>
       </c>
       <c r="E278" t="s">
         <v>36</v>
@@ -33999,7 +33999,7 @@
         <v>2020</v>
       </c>
       <c r="D279">
-        <v>0.7363</v>
+        <v>0.6919</v>
       </c>
       <c r="E279" t="s">
         <v>37</v>
@@ -34019,7 +34019,7 @@
         <v>2020</v>
       </c>
       <c r="D280">
-        <v>-0.08790000000000001</v>
+        <v>-0.07149999999999999</v>
       </c>
       <c r="E280" t="s">
         <v>38</v>
@@ -34039,7 +34039,7 @@
         <v>2020</v>
       </c>
       <c r="D281">
-        <v>-0.1489</v>
+        <v>-0.1178</v>
       </c>
       <c r="E281" t="s">
         <v>39</v>
@@ -34059,7 +34059,7 @@
         <v>2020</v>
       </c>
       <c r="D282">
-        <v>-0.1076</v>
+        <v>-0.08069999999999999</v>
       </c>
       <c r="E282" t="s">
         <v>40</v>
@@ -34079,7 +34079,7 @@
         <v>2020</v>
       </c>
       <c r="D283">
-        <v>-0.3496</v>
+        <v>-0.2592</v>
       </c>
       <c r="E283" t="s">
         <v>41</v>
@@ -34099,7 +34099,7 @@
         <v>2020</v>
       </c>
       <c r="D284">
-        <v>0.0481</v>
+        <v>0.0376</v>
       </c>
       <c r="E284" t="s">
         <v>42</v>
@@ -34119,7 +34119,7 @@
         <v>2020</v>
       </c>
       <c r="D285">
-        <v>0.7632</v>
+        <v>0.597</v>
       </c>
       <c r="E285" t="s">
         <v>43</v>
@@ -34139,7 +34139,7 @@
         <v>2020</v>
       </c>
       <c r="D286">
-        <v>0.0192</v>
+        <v>0.0141</v>
       </c>
       <c r="E286" t="s">
         <v>44</v>
@@ -34159,7 +34159,7 @@
         <v>2020</v>
       </c>
       <c r="D287">
-        <v>1.2424</v>
+        <v>1.1765</v>
       </c>
       <c r="E287" t="s">
         <v>45</v>
@@ -34179,7 +34179,7 @@
         <v>2020</v>
       </c>
       <c r="D288">
-        <v>0.0969</v>
+        <v>0.066</v>
       </c>
       <c r="E288" t="s">
         <v>46</v>
@@ -34199,7 +34199,7 @@
         <v>2020</v>
       </c>
       <c r="D289">
-        <v>0.0239</v>
+        <v>0.0165</v>
       </c>
       <c r="E289" t="s">
         <v>47</v>
@@ -34219,7 +34219,7 @@
         <v>2020</v>
       </c>
       <c r="D290">
-        <v>0.607</v>
+        <v>0.4808</v>
       </c>
       <c r="E290" t="s">
         <v>48</v>
@@ -34239,7 +34239,7 @@
         <v>2020</v>
       </c>
       <c r="D291">
-        <v>0.2424</v>
+        <v>0.1765</v>
       </c>
       <c r="E291" t="s">
         <v>49</v>
@@ -34259,7 +34259,7 @@
         <v>2021</v>
       </c>
       <c r="D292">
-        <v>-0.0764745869996768</v>
+        <v>1.04344354869581</v>
       </c>
       <c r="E292" t="s">
         <v>21</v>
@@ -34279,7 +34279,7 @@
         <v>2021</v>
       </c>
       <c r="D293">
-        <v>-0.0534</v>
+        <v>0.6379</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -34299,7 +34299,7 @@
         <v>2021</v>
       </c>
       <c r="D294">
-        <v>0.8136</v>
+        <v>0.9263</v>
       </c>
       <c r="E294" t="s">
         <v>23</v>
@@ -34319,7 +34319,7 @@
         <v>2021</v>
       </c>
       <c r="D295">
-        <v>-0.0823</v>
+        <v>0.6635</v>
       </c>
       <c r="E295" t="s">
         <v>50</v>
@@ -34339,7 +34339,7 @@
         <v>2021</v>
       </c>
       <c r="D296">
-        <v>0.0513</v>
+        <v>0.0584</v>
       </c>
       <c r="E296" t="s">
         <v>25</v>
@@ -34359,7 +34359,7 @@
         <v>2021</v>
       </c>
       <c r="D297">
-        <v>-0.9965000000000001</v>
+        <v>-1.2311</v>
       </c>
       <c r="E297" t="s">
         <v>26</v>
@@ -34379,7 +34379,7 @@
         <v>2021</v>
       </c>
       <c r="D298">
-        <v>8.145799999999999</v>
+        <v>10.4782</v>
       </c>
       <c r="E298" t="s">
         <v>27</v>
@@ -34399,7 +34399,7 @@
         <v>2021</v>
       </c>
       <c r="D299">
-        <v>5.1458</v>
+        <v>7.4782</v>
       </c>
       <c r="E299" t="s">
         <v>28</v>
@@ -34419,7 +34419,7 @@
         <v>2021</v>
       </c>
       <c r="D300">
-        <v>-1.0047</v>
+        <v>-1.2413</v>
       </c>
       <c r="E300" t="s">
         <v>29</v>
@@ -34439,7 +34439,7 @@
         <v>2021</v>
       </c>
       <c r="D301">
-        <v>5.2336</v>
+        <v>7.5983</v>
       </c>
       <c r="E301" t="s">
         <v>30</v>
@@ -34459,7 +34459,7 @@
         <v>2021</v>
       </c>
       <c r="D302">
-        <v>0.0391</v>
+        <v>0.0451</v>
       </c>
       <c r="E302" t="s">
         <v>31</v>
@@ -34479,7 +34479,7 @@
         <v>2021</v>
       </c>
       <c r="D303">
-        <v>0.0291</v>
+        <v>0.0336</v>
       </c>
       <c r="E303" t="s">
         <v>32</v>
@@ -34499,7 +34499,7 @@
         <v>2021</v>
       </c>
       <c r="D304">
-        <v>0.0414</v>
+        <v>0.0502</v>
       </c>
       <c r="E304" t="s">
         <v>33</v>
@@ -34519,7 +34519,7 @@
         <v>2021</v>
       </c>
       <c r="D305">
-        <v>0.0386</v>
+        <v>0.0434</v>
       </c>
       <c r="E305" t="s">
         <v>34</v>
@@ -34539,7 +34539,7 @@
         <v>2021</v>
       </c>
       <c r="D306">
-        <v>0.0386</v>
+        <v>0.0434</v>
       </c>
       <c r="E306" t="s">
         <v>35</v>
@@ -34559,7 +34559,7 @@
         <v>2021</v>
       </c>
       <c r="D307">
-        <v>0.0386</v>
+        <v>0.0434</v>
       </c>
       <c r="E307" t="s">
         <v>36</v>
@@ -34579,7 +34579,7 @@
         <v>2021</v>
       </c>
       <c r="D308">
-        <v>0.7044</v>
+        <v>0.7484</v>
       </c>
       <c r="E308" t="s">
         <v>37</v>
@@ -34599,7 +34599,7 @@
         <v>2021</v>
       </c>
       <c r="D309">
-        <v>-0.079</v>
+        <v>-0.08110000000000001</v>
       </c>
       <c r="E309" t="s">
         <v>38</v>
@@ -34619,7 +34619,7 @@
         <v>2021</v>
       </c>
       <c r="D310">
-        <v>-0.1241</v>
+        <v>-0.141</v>
       </c>
       <c r="E310" t="s">
         <v>39</v>
@@ -34639,7 +34639,7 @@
         <v>2021</v>
       </c>
       <c r="D311">
-        <v>-0.09130000000000001</v>
+        <v>-0.102</v>
       </c>
       <c r="E311" t="s">
         <v>40</v>
@@ -34659,7 +34659,7 @@
         <v>2021</v>
       </c>
       <c r="D312">
-        <v>-0.1788</v>
+        <v>-0.2316</v>
       </c>
       <c r="E312" t="s">
         <v>41</v>
@@ -34679,7 +34679,7 @@
         <v>2021</v>
       </c>
       <c r="D313">
-        <v>0.0386</v>
+        <v>0.0434</v>
       </c>
       <c r="E313" t="s">
         <v>42</v>
@@ -34699,7 +34699,7 @@
         <v>2021</v>
       </c>
       <c r="D314">
-        <v>0.6123</v>
+        <v>0.6896</v>
       </c>
       <c r="E314" t="s">
         <v>43</v>
@@ -34719,7 +34719,7 @@
         <v>2021</v>
       </c>
       <c r="D315">
-        <v>0.018</v>
+        <v>0.0188</v>
       </c>
       <c r="E315" t="s">
         <v>44</v>
@@ -34739,7 +34739,7 @@
         <v>2021</v>
       </c>
       <c r="D316">
-        <v>1.0639</v>
+        <v>1.2009</v>
       </c>
       <c r="E316" t="s">
         <v>45</v>
@@ -34759,7 +34759,7 @@
         <v>2021</v>
       </c>
       <c r="D317">
-        <v>0.0298</v>
+        <v>0.0868</v>
       </c>
       <c r="E317" t="s">
         <v>46</v>
@@ -34779,7 +34779,7 @@
         <v>2021</v>
       </c>
       <c r="D318">
-        <v>0.0192</v>
+        <v>0.0225</v>
       </c>
       <c r="E318" t="s">
         <v>47</v>
@@ -34799,7 +34799,7 @@
         <v>2021</v>
       </c>
       <c r="D319">
-        <v>0.6097</v>
+        <v>0.569</v>
       </c>
       <c r="E319" t="s">
         <v>48</v>
@@ -34819,7 +34819,7 @@
         <v>2021</v>
       </c>
       <c r="D320">
-        <v>0.0639</v>
+        <v>0.2009</v>
       </c>
       <c r="E320" t="s">
         <v>49</v>
@@ -34839,7 +34839,7 @@
         <v>2022</v>
       </c>
       <c r="D321">
-        <v>-0.681437401832683</v>
+        <v>-0.687117174007582</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -34859,7 +34859,7 @@
         <v>2022</v>
       </c>
       <c r="D322">
-        <v>-0.6126</v>
+        <v>-0.6183</v>
       </c>
       <c r="E322" t="s">
         <v>22</v>
@@ -34879,7 +34879,7 @@
         <v>2022</v>
       </c>
       <c r="D323">
-        <v>0.6574</v>
+        <v>0.63</v>
       </c>
       <c r="E323" t="s">
         <v>23</v>
@@ -34899,7 +34899,7 @@
         <v>2022</v>
       </c>
       <c r="D324">
-        <v>-0.9681999999999999</v>
+        <v>-1.0228</v>
       </c>
       <c r="E324" t="s">
         <v>51</v>
@@ -34919,7 +34919,7 @@
         <v>2022</v>
       </c>
       <c r="D325">
-        <v>0.0414</v>
+        <v>0.0397</v>
       </c>
       <c r="E325" t="s">
         <v>25</v>
@@ -34939,7 +34939,7 @@
         <v>2022</v>
       </c>
       <c r="D326">
-        <v>-0.7521</v>
+        <v>-0.8414</v>
       </c>
       <c r="E326" t="s">
         <v>26</v>
@@ -34959,7 +34959,7 @@
         <v>2022</v>
       </c>
       <c r="D327">
-        <v>5.3657</v>
+        <v>5.5715</v>
       </c>
       <c r="E327" t="s">
         <v>27</v>
@@ -34979,7 +34979,7 @@
         <v>2022</v>
       </c>
       <c r="D328">
-        <v>2.3657</v>
+        <v>2.5715</v>
       </c>
       <c r="E328" t="s">
         <v>28</v>
@@ -34999,7 +34999,7 @@
         <v>2022</v>
       </c>
       <c r="D329">
-        <v>-0.7595</v>
+        <v>-0.8498</v>
       </c>
       <c r="E329" t="s">
         <v>29</v>
@@ -35019,7 +35019,7 @@
         <v>2022</v>
       </c>
       <c r="D330">
-        <v>2.4251</v>
+        <v>2.6343</v>
       </c>
       <c r="E330" t="s">
         <v>30</v>
@@ -35039,7 +35039,7 @@
         <v>2022</v>
       </c>
       <c r="D331">
-        <v>0.0316</v>
+        <v>0.0306</v>
       </c>
       <c r="E331" t="s">
         <v>31</v>
@@ -35059,7 +35059,7 @@
         <v>2022</v>
       </c>
       <c r="D332">
-        <v>0.0225</v>
+        <v>0.0212</v>
       </c>
       <c r="E332" t="s">
         <v>32</v>
@@ -35079,7 +35079,7 @@
         <v>2022</v>
       </c>
       <c r="D333">
-        <v>0.033</v>
+        <v>0.0325</v>
       </c>
       <c r="E333" t="s">
         <v>33</v>
@@ -35099,7 +35099,7 @@
         <v>2022</v>
       </c>
       <c r="D334">
-        <v>0.033</v>
+        <v>0.0321</v>
       </c>
       <c r="E334" t="s">
         <v>34</v>
@@ -35119,7 +35119,7 @@
         <v>2022</v>
       </c>
       <c r="D335">
-        <v>0.033</v>
+        <v>0.0321</v>
       </c>
       <c r="E335" t="s">
         <v>35</v>
@@ -35139,7 +35139,7 @@
         <v>2022</v>
       </c>
       <c r="D336">
-        <v>0.033</v>
+        <v>0.0321</v>
       </c>
       <c r="E336" t="s">
         <v>36</v>
@@ -35159,7 +35159,7 @@
         <v>2022</v>
       </c>
       <c r="D337">
-        <v>0.7647</v>
+        <v>0.7376</v>
       </c>
       <c r="E337" t="s">
         <v>37</v>
@@ -35179,7 +35179,7 @@
         <v>2022</v>
       </c>
       <c r="D338">
-        <v>-0.07140000000000001</v>
+        <v>-0.07290000000000001</v>
       </c>
       <c r="E338" t="s">
         <v>38</v>
@@ -35199,7 +35199,7 @@
         <v>2022</v>
       </c>
       <c r="D339">
-        <v>-0.1061</v>
+        <v>-0.1039</v>
       </c>
       <c r="E339" t="s">
         <v>39</v>
@@ -35219,7 +35219,7 @@
         <v>2022</v>
       </c>
       <c r="D340">
-        <v>-0.07729999999999999</v>
+        <v>-0.0751</v>
       </c>
       <c r="E340" t="s">
         <v>40</v>
@@ -35239,7 +35239,7 @@
         <v>2022</v>
       </c>
       <c r="D341">
-        <v>-0.1208</v>
+        <v>-0.1185</v>
       </c>
       <c r="E341" t="s">
         <v>41</v>
@@ -35259,7 +35259,7 @@
         <v>2022</v>
       </c>
       <c r="D342">
-        <v>0.033</v>
+        <v>0.0321</v>
       </c>
       <c r="E342" t="s">
         <v>42</v>
@@ -35279,7 +35279,7 @@
         <v>2022</v>
       </c>
       <c r="D343">
-        <v>0.5238</v>
+        <v>0.5089</v>
       </c>
       <c r="E343" t="s">
         <v>43</v>
@@ -35299,7 +35299,7 @@
         <v>2022</v>
       </c>
       <c r="D344">
-        <v>0.0166</v>
+        <v>0.0159</v>
       </c>
       <c r="E344" t="s">
         <v>44</v>
@@ -35319,7 +35319,7 @@
         <v>2022</v>
       </c>
       <c r="D345">
-        <v>0.8262</v>
+        <v>0.8107</v>
       </c>
       <c r="E345" t="s">
         <v>45</v>
@@ -35339,7 +35339,7 @@
         <v>2022</v>
       </c>
       <c r="D346">
-        <v>-0.0872</v>
+        <v>-0.09379999999999999</v>
       </c>
       <c r="E346" t="s">
         <v>46</v>
@@ -35359,7 +35359,7 @@
         <v>2022</v>
       </c>
       <c r="D347">
-        <v>0.0137</v>
+        <v>0.0129</v>
       </c>
       <c r="E347" t="s">
         <v>47</v>
@@ -35379,7 +35379,7 @@
         <v>2022</v>
       </c>
       <c r="D348">
-        <v>0.6037</v>
+        <v>0.5462</v>
       </c>
       <c r="E348" t="s">
         <v>48</v>
@@ -35399,7 +35399,7 @@
         <v>2022</v>
       </c>
       <c r="D349">
-        <v>-0.1738</v>
+        <v>-0.1893</v>
       </c>
       <c r="E349" t="s">
         <v>49</v>
